--- a/answer.xlsx
+++ b/answer.xlsx
@@ -315,11 +315,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2100620840"/>
-        <c:axId val="2104765512"/>
+        <c:axId val="2119618984"/>
+        <c:axId val="2140537416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2100620840"/>
+        <c:axId val="2119618984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -393,7 +393,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2104765512"/>
+        <c:crossAx val="2140537416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -403,7 +403,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2104765512"/>
+        <c:axId val="2140537416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -448,7 +448,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2100620840"/>
+        <c:crossAx val="2119618984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -599,7 +599,7 @@
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="360"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>200000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.0</c:v>
@@ -617,7 +617,7 @@
                   <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>200100.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8.0</c:v>
@@ -638,1045 +638,7 @@
                   <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>57.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>59.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>61.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>63.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>64.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>67.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>71.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>73.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>76.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>81.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>82.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>83.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>84.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>85.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>86.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>87.0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>88.0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>89.0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>91.0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>92.0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>93.0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>94.0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>95.0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>96.0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>97.0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>98.0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>99.0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>101.0</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>102.0</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>103.0</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>104.0</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>105.0</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>106.0</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>107.0</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>108.0</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>109.0</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>110.0</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>111.0</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>112.0</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>113.0</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>114.0</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>115.0</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>116.0</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>117.0</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>118.0</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>119.0</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>120.0</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>121.0</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>122.0</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>123.0</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>124.0</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>125.0</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>126.0</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>128.0</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>129.0</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>130.0</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>131.0</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>132.0</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>133.0</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>134.0</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>135.0</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>136.0</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>137.0</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>138.0</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>139.0</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>140.0</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>141.0</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>142.0</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>143.0</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>144.0</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>145.0</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>146.0</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>147.0</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>148.0</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>149.0</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>150.0</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>151.0</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>152.0</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>153.0</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>154.0</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>155.0</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>156.0</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>157.0</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>158.0</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>159.0</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>160.0</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>161.0</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>162.0</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>163.0</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>164.0</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>165.0</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>166.0</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>167.0</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>168.0</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>169.0</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>170.0</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>171.0</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>172.0</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>173.0</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>174.0</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>175.0</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>176.0</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>177.0</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>178.0</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>179.0</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>180.0</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>181.0</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>182.0</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>183.0</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>184.0</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>185.0</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>186.0</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>187.0</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>188.0</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>189.0</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>190.0</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>191.0</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>192.0</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>193.0</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>194.0</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>195.0</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>196.0</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>197.0</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>198.0</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>199.0</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>200.0</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>201.0</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>202.0</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>203.0</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>204.0</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>205.0</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>206.0</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>207.0</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>208.0</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>209.0</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>210.0</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>211.0</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>212.0</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>213.0</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>214.0</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>215.0</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>216.0</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>217.0</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>218.0</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>219.0</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>220.0</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>221.0</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>222.0</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>223.0</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>224.0</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>225.0</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>226.0</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>227.0</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>228.0</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>229.0</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>230.0</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>231.0</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>232.0</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>233.0</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>234.0</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>235.0</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>236.0</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>237.0</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>238.0</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>239.0</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>240.0</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>241.0</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>242.0</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>243.0</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>244.0</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>245.0</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>246.0</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>247.0</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>248.0</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>249.0</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>250.0</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>251.0</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>252.0</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>253.0</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>254.0</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>256.0</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>257.0</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>258.0</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>259.0</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>260.0</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>261.0</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>262.0</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>263.0</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>264.0</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>265.0</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>266.0</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>267.0</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>268.0</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>269.0</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>270.0</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>271.0</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>272.0</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>273.0</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>274.0</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>275.0</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>276.0</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>277.0</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>278.0</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>279.0</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>280.0</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>281.0</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>282.0</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>283.0</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>284.0</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>285.0</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>286.0</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>287.0</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>288.0</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>289.0</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>290.0</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>291.0</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>292.0</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>293.0</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>294.0</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>295.0</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>296.0</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>297.0</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>298.0</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>299.0</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>300.0</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>301.0</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>302.0</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>303.0</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>304.0</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>305.0</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>306.0</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>307.0</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>308.0</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>309.0</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>310.0</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>311.0</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>312.0</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>313.0</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>314.0</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>315.0</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>316.0</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>317.0</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>318.0</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>319.0</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>320.0</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>321.0</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>322.0</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>323.0</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>324.0</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>325.0</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>326.0</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>327.0</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>328.0</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>329.0</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>330.0</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>331.0</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>332.0</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>333.0</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>334.0</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>335.0</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>336.0</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>337.0</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>338.0</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>339.0</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>340.0</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>341.0</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>342.0</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>343.0</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>344.0</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>345.0</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>346.0</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>347.0</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>348.0</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>349.0</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>350.0</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>351.0</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>352.0</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>353.0</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>354.0</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>355.0</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>356.0</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>357.0</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>358.0</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>359.0</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>360.0</c:v>
+                  <c:v>400000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1773,11 +735,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2100805928"/>
-        <c:axId val="2092135832"/>
+        <c:axId val="2140757176"/>
+        <c:axId val="2140673016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2100805928"/>
+        <c:axId val="2140757176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1851,7 +813,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2092135832"/>
+        <c:crossAx val="2140673016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1861,7 +823,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2092135832"/>
+        <c:axId val="2140673016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1906,7 +868,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2100805928"/>
+        <c:crossAx val="2140757176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2396,7 +1358,7 @@
   <dimension ref="A1:H495"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2553,11 +1515,11 @@
         <v>1</v>
       </c>
       <c r="C14" s="5">
-        <f>+C4</f>
         <v>200000</v>
       </c>
       <c r="D14" s="10">
-        <v>1</v>
+        <f>C14</f>
+        <v>200000</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="11"/>
@@ -2668,7 +1630,8 @@
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="10">
-        <v>7</v>
+        <f>C14+100</f>
+        <v>200100</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="7"/>
@@ -2770,6 +1733,7 @@
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="10">
+        <f>D25+1</f>
         <v>13</v>
       </c>
       <c r="E26" s="5"/>
@@ -2787,7 +1751,8 @@
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5">
-        <v>14</v>
+        <f>C4*2</f>
+        <v>400000</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="7"/>
@@ -2803,9 +1768,7 @@
         <v>15</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="5">
-        <v>15</v>
-      </c>
+      <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="7"/>
       <c r="G28" s="5"/>
@@ -2820,9 +1783,7 @@
         <v>16</v>
       </c>
       <c r="C29" s="5"/>
-      <c r="D29" s="5">
-        <v>16</v>
-      </c>
+      <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="7"/>
       <c r="G29" s="5"/>
@@ -2837,9 +1798,7 @@
         <v>17</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="5">
-        <v>17</v>
-      </c>
+      <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="7"/>
       <c r="G30" s="5"/>
@@ -2854,9 +1813,7 @@
         <v>18</v>
       </c>
       <c r="C31" s="5"/>
-      <c r="D31" s="5">
-        <v>18</v>
-      </c>
+      <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="7"/>
       <c r="G31" s="5"/>
@@ -2871,9 +1828,7 @@
         <v>19</v>
       </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="10">
-        <v>19</v>
-      </c>
+      <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="7"/>
       <c r="G32" s="5"/>
@@ -2888,9 +1843,7 @@
         <v>20</v>
       </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="5">
-        <v>20</v>
-      </c>
+      <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="7"/>
       <c r="G33" s="5"/>
@@ -2905,9 +1858,7 @@
         <v>21</v>
       </c>
       <c r="C34" s="5"/>
-      <c r="D34" s="5">
-        <v>21</v>
-      </c>
+      <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="7"/>
       <c r="G34" s="5"/>
@@ -2922,9 +1873,7 @@
         <v>22</v>
       </c>
       <c r="C35" s="5"/>
-      <c r="D35" s="5">
-        <v>22</v>
-      </c>
+      <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="7"/>
       <c r="G35" s="5"/>
@@ -2939,9 +1888,7 @@
         <v>23</v>
       </c>
       <c r="C36" s="5"/>
-      <c r="D36" s="5">
-        <v>23</v>
-      </c>
+      <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="7"/>
       <c r="G36" s="5"/>
@@ -2956,9 +1903,7 @@
         <v>24</v>
       </c>
       <c r="C37" s="5"/>
-      <c r="D37" s="5">
-        <v>24</v>
-      </c>
+      <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="7"/>
       <c r="G37" s="9"/>
@@ -2973,9 +1918,7 @@
         <v>25</v>
       </c>
       <c r="C38" s="5"/>
-      <c r="D38" s="10">
-        <v>25</v>
-      </c>
+      <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="7"/>
       <c r="G38" s="5"/>
@@ -2990,9 +1933,7 @@
         <v>26</v>
       </c>
       <c r="C39" s="5"/>
-      <c r="D39" s="5">
-        <v>26</v>
-      </c>
+      <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="7"/>
       <c r="G39" s="5"/>
@@ -3007,9 +1948,7 @@
         <v>27</v>
       </c>
       <c r="C40" s="5"/>
-      <c r="D40" s="5">
-        <v>27</v>
-      </c>
+      <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="7"/>
       <c r="G40" s="5"/>
@@ -3024,9 +1963,7 @@
         <v>28</v>
       </c>
       <c r="C41" s="5"/>
-      <c r="D41" s="5">
-        <v>28</v>
-      </c>
+      <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="7"/>
       <c r="G41" s="5"/>
@@ -3041,9 +1978,7 @@
         <v>29</v>
       </c>
       <c r="C42" s="5"/>
-      <c r="D42" s="5">
-        <v>29</v>
-      </c>
+      <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="7"/>
       <c r="G42" s="5"/>
@@ -3058,9 +1993,7 @@
         <v>30</v>
       </c>
       <c r="C43" s="5"/>
-      <c r="D43" s="5">
-        <v>30</v>
-      </c>
+      <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="7"/>
       <c r="G43" s="5"/>
@@ -3075,9 +2008,7 @@
         <v>31</v>
       </c>
       <c r="C44" s="5"/>
-      <c r="D44" s="10">
-        <v>31</v>
-      </c>
+      <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="7"/>
       <c r="G44" s="5"/>
@@ -3092,9 +2023,7 @@
         <v>32</v>
       </c>
       <c r="C45" s="5"/>
-      <c r="D45" s="5">
-        <v>32</v>
-      </c>
+      <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="7"/>
       <c r="G45" s="5"/>
@@ -3109,9 +2038,7 @@
         <v>33</v>
       </c>
       <c r="C46" s="5"/>
-      <c r="D46" s="5">
-        <v>33</v>
-      </c>
+      <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="7"/>
       <c r="G46" s="5"/>
@@ -3126,9 +2053,7 @@
         <v>34</v>
       </c>
       <c r="C47" s="5"/>
-      <c r="D47" s="5">
-        <v>34</v>
-      </c>
+      <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="7"/>
       <c r="G47" s="5"/>
@@ -3143,9 +2068,7 @@
         <v>35</v>
       </c>
       <c r="C48" s="5"/>
-      <c r="D48" s="5">
-        <v>35</v>
-      </c>
+      <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="7"/>
       <c r="G48" s="5"/>
@@ -3160,9 +2083,7 @@
         <v>36</v>
       </c>
       <c r="C49" s="5"/>
-      <c r="D49" s="5">
-        <v>36</v>
-      </c>
+      <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="7"/>
       <c r="G49" s="5"/>
@@ -3177,9 +2098,7 @@
         <v>37</v>
       </c>
       <c r="C50" s="5"/>
-      <c r="D50" s="10">
-        <v>37</v>
-      </c>
+      <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="7"/>
       <c r="G50" s="5"/>
@@ -3194,9 +2113,7 @@
         <v>38</v>
       </c>
       <c r="C51" s="5"/>
-      <c r="D51" s="5">
-        <v>38</v>
-      </c>
+      <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="7"/>
       <c r="G51" s="5"/>
@@ -3211,9 +2128,7 @@
         <v>39</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="5">
-        <v>39</v>
-      </c>
+      <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="7"/>
       <c r="G52" s="5"/>
@@ -3228,9 +2143,7 @@
         <v>40</v>
       </c>
       <c r="C53" s="5"/>
-      <c r="D53" s="5">
-        <v>40</v>
-      </c>
+      <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="7"/>
       <c r="G53" s="5"/>
@@ -3245,9 +2158,7 @@
         <v>41</v>
       </c>
       <c r="C54" s="5"/>
-      <c r="D54" s="5">
-        <v>41</v>
-      </c>
+      <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="7"/>
       <c r="G54" s="5"/>
@@ -3262,9 +2173,7 @@
         <v>42</v>
       </c>
       <c r="C55" s="5"/>
-      <c r="D55" s="5">
-        <v>42</v>
-      </c>
+      <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="7"/>
       <c r="G55" s="5"/>
@@ -3279,9 +2188,7 @@
         <v>43</v>
       </c>
       <c r="C56" s="5"/>
-      <c r="D56" s="10">
-        <v>43</v>
-      </c>
+      <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="7"/>
       <c r="G56" s="5"/>
@@ -3296,9 +2203,7 @@
         <v>44</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="5">
-        <v>44</v>
-      </c>
+      <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="7"/>
       <c r="G57" s="5"/>
@@ -3313,9 +2218,7 @@
         <v>45</v>
       </c>
       <c r="C58" s="5"/>
-      <c r="D58" s="5">
-        <v>45</v>
-      </c>
+      <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="7"/>
       <c r="G58" s="5"/>
@@ -3330,9 +2233,7 @@
         <v>46</v>
       </c>
       <c r="C59" s="5"/>
-      <c r="D59" s="5">
-        <v>46</v>
-      </c>
+      <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="7"/>
       <c r="G59" s="5"/>
@@ -3347,9 +2248,7 @@
         <v>47</v>
       </c>
       <c r="C60" s="5"/>
-      <c r="D60" s="5">
-        <v>47</v>
-      </c>
+      <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="7"/>
       <c r="G60" s="5"/>
@@ -3364,9 +2263,7 @@
         <v>48</v>
       </c>
       <c r="C61" s="5"/>
-      <c r="D61" s="5">
-        <v>48</v>
-      </c>
+      <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="7"/>
       <c r="G61" s="5"/>
@@ -3381,9 +2278,7 @@
         <v>49</v>
       </c>
       <c r="C62" s="5"/>
-      <c r="D62" s="10">
-        <v>49</v>
-      </c>
+      <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="7"/>
       <c r="G62" s="5"/>
@@ -3398,9 +2293,7 @@
         <v>50</v>
       </c>
       <c r="C63" s="5"/>
-      <c r="D63" s="5">
-        <v>50</v>
-      </c>
+      <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="F63" s="7"/>
       <c r="G63" s="5"/>
@@ -3415,9 +2308,7 @@
         <v>51</v>
       </c>
       <c r="C64" s="5"/>
-      <c r="D64" s="5">
-        <v>51</v>
-      </c>
+      <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="7"/>
       <c r="G64" s="5"/>
@@ -3432,9 +2323,7 @@
         <v>52</v>
       </c>
       <c r="C65" s="5"/>
-      <c r="D65" s="5">
-        <v>52</v>
-      </c>
+      <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="7"/>
       <c r="G65" s="5"/>
@@ -3449,9 +2338,7 @@
         <v>53</v>
       </c>
       <c r="C66" s="5"/>
-      <c r="D66" s="5">
-        <v>53</v>
-      </c>
+      <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="7"/>
       <c r="G66" s="5"/>
@@ -3466,9 +2353,7 @@
         <v>54</v>
       </c>
       <c r="C67" s="5"/>
-      <c r="D67" s="5">
-        <v>54</v>
-      </c>
+      <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="7"/>
       <c r="G67" s="5"/>
@@ -3483,9 +2368,7 @@
         <v>55</v>
       </c>
       <c r="C68" s="5"/>
-      <c r="D68" s="10">
-        <v>55</v>
-      </c>
+      <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="7"/>
       <c r="G68" s="5"/>
@@ -3500,9 +2383,7 @@
         <v>56</v>
       </c>
       <c r="C69" s="5"/>
-      <c r="D69" s="5">
-        <v>56</v>
-      </c>
+      <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="7"/>
       <c r="G69" s="5"/>
@@ -3517,9 +2398,7 @@
         <v>57</v>
       </c>
       <c r="C70" s="5"/>
-      <c r="D70" s="5">
-        <v>57</v>
-      </c>
+      <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="F70" s="7"/>
       <c r="G70" s="5"/>
@@ -3534,9 +2413,7 @@
         <v>58</v>
       </c>
       <c r="C71" s="5"/>
-      <c r="D71" s="5">
-        <v>58</v>
-      </c>
+      <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="F71" s="7"/>
       <c r="G71" s="5"/>
@@ -3551,9 +2428,7 @@
         <v>59</v>
       </c>
       <c r="C72" s="5"/>
-      <c r="D72" s="5">
-        <v>59</v>
-      </c>
+      <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="7"/>
       <c r="G72" s="5"/>
@@ -3568,9 +2443,7 @@
         <v>60</v>
       </c>
       <c r="C73" s="5"/>
-      <c r="D73" s="5">
-        <v>60</v>
-      </c>
+      <c r="D73" s="5"/>
       <c r="E73" s="5"/>
       <c r="F73" s="7"/>
       <c r="G73" s="5"/>
@@ -3585,9 +2458,7 @@
         <v>61</v>
       </c>
       <c r="C74" s="5"/>
-      <c r="D74" s="10">
-        <v>61</v>
-      </c>
+      <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="7"/>
       <c r="G74" s="5"/>
@@ -3602,9 +2473,7 @@
         <v>62</v>
       </c>
       <c r="C75" s="5"/>
-      <c r="D75" s="5">
-        <v>62</v>
-      </c>
+      <c r="D75" s="5"/>
       <c r="E75" s="5"/>
       <c r="F75" s="7"/>
       <c r="G75" s="5"/>
@@ -3619,9 +2488,7 @@
         <v>63</v>
       </c>
       <c r="C76" s="5"/>
-      <c r="D76" s="5">
-        <v>63</v>
-      </c>
+      <c r="D76" s="5"/>
       <c r="E76" s="5"/>
       <c r="F76" s="7"/>
       <c r="G76" s="5"/>
@@ -3636,9 +2503,7 @@
         <v>64</v>
       </c>
       <c r="C77" s="5"/>
-      <c r="D77" s="5">
-        <v>64</v>
-      </c>
+      <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="F77" s="7"/>
       <c r="G77" s="5"/>
@@ -3653,9 +2518,7 @@
         <v>65</v>
       </c>
       <c r="C78" s="5"/>
-      <c r="D78" s="5">
-        <v>65</v>
-      </c>
+      <c r="D78" s="5"/>
       <c r="E78" s="5"/>
       <c r="F78" s="7"/>
       <c r="G78" s="5"/>
@@ -3670,9 +2533,7 @@
         <v>66</v>
       </c>
       <c r="C79" s="5"/>
-      <c r="D79" s="5">
-        <v>66</v>
-      </c>
+      <c r="D79" s="5"/>
       <c r="E79" s="5"/>
       <c r="F79" s="7"/>
       <c r="G79" s="5"/>
@@ -3687,9 +2548,7 @@
         <v>67</v>
       </c>
       <c r="C80" s="5"/>
-      <c r="D80" s="10">
-        <v>67</v>
-      </c>
+      <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="F80" s="7"/>
       <c r="G80" s="5"/>
@@ -3704,9 +2563,7 @@
         <v>68</v>
       </c>
       <c r="C81" s="5"/>
-      <c r="D81" s="5">
-        <v>68</v>
-      </c>
+      <c r="D81" s="5"/>
       <c r="E81" s="5"/>
       <c r="F81" s="7"/>
       <c r="G81" s="5"/>
@@ -3721,9 +2578,7 @@
         <v>69</v>
       </c>
       <c r="C82" s="5"/>
-      <c r="D82" s="5">
-        <v>69</v>
-      </c>
+      <c r="D82" s="5"/>
       <c r="E82" s="5"/>
       <c r="F82" s="7"/>
       <c r="G82" s="5"/>
@@ -3738,9 +2593,7 @@
         <v>70</v>
       </c>
       <c r="C83" s="5"/>
-      <c r="D83" s="5">
-        <v>70</v>
-      </c>
+      <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="7"/>
       <c r="G83" s="5"/>
@@ -3755,9 +2608,7 @@
         <v>71</v>
       </c>
       <c r="C84" s="5"/>
-      <c r="D84" s="5">
-        <v>71</v>
-      </c>
+      <c r="D84" s="5"/>
       <c r="E84" s="5"/>
       <c r="F84" s="7"/>
       <c r="G84" s="5"/>
@@ -3772,9 +2623,7 @@
         <v>72</v>
       </c>
       <c r="C85" s="5"/>
-      <c r="D85" s="5">
-        <v>72</v>
-      </c>
+      <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="7"/>
       <c r="G85" s="5"/>
@@ -3789,9 +2638,7 @@
         <v>73</v>
       </c>
       <c r="C86" s="5"/>
-      <c r="D86" s="10">
-        <v>73</v>
-      </c>
+      <c r="D86" s="5"/>
       <c r="E86" s="5"/>
       <c r="F86" s="7"/>
       <c r="G86" s="5"/>
@@ -3806,9 +2653,7 @@
         <v>74</v>
       </c>
       <c r="C87" s="5"/>
-      <c r="D87" s="5">
-        <v>74</v>
-      </c>
+      <c r="D87" s="5"/>
       <c r="E87" s="5"/>
       <c r="F87" s="7"/>
       <c r="G87" s="5"/>
@@ -3823,9 +2668,7 @@
         <v>75</v>
       </c>
       <c r="C88" s="5"/>
-      <c r="D88" s="5">
-        <v>75</v>
-      </c>
+      <c r="D88" s="5"/>
       <c r="E88" s="5"/>
       <c r="F88" s="7"/>
       <c r="G88" s="5"/>
@@ -3840,9 +2683,7 @@
         <v>76</v>
       </c>
       <c r="C89" s="5"/>
-      <c r="D89" s="5">
-        <v>76</v>
-      </c>
+      <c r="D89" s="5"/>
       <c r="E89" s="5"/>
       <c r="F89" s="7"/>
       <c r="G89" s="5"/>
@@ -3857,9 +2698,7 @@
         <v>77</v>
       </c>
       <c r="C90" s="5"/>
-      <c r="D90" s="5">
-        <v>77</v>
-      </c>
+      <c r="D90" s="5"/>
       <c r="E90" s="5"/>
       <c r="F90" s="7"/>
       <c r="G90" s="5"/>
@@ -3874,9 +2713,7 @@
         <v>78</v>
       </c>
       <c r="C91" s="5"/>
-      <c r="D91" s="5">
-        <v>78</v>
-      </c>
+      <c r="D91" s="5"/>
       <c r="E91" s="5"/>
       <c r="F91" s="7"/>
       <c r="G91" s="5"/>
@@ -3891,9 +2728,7 @@
         <v>79</v>
       </c>
       <c r="C92" s="5"/>
-      <c r="D92" s="10">
-        <v>79</v>
-      </c>
+      <c r="D92" s="5"/>
       <c r="E92" s="5"/>
       <c r="F92" s="7"/>
       <c r="G92" s="5"/>
@@ -3908,9 +2743,7 @@
         <v>80</v>
       </c>
       <c r="C93" s="5"/>
-      <c r="D93" s="5">
-        <v>80</v>
-      </c>
+      <c r="D93" s="5"/>
       <c r="E93" s="5"/>
       <c r="F93" s="7"/>
       <c r="G93" s="5"/>
@@ -3925,9 +2758,7 @@
         <v>81</v>
       </c>
       <c r="C94" s="5"/>
-      <c r="D94" s="5">
-        <v>81</v>
-      </c>
+      <c r="D94" s="5"/>
       <c r="E94" s="5"/>
       <c r="F94" s="7"/>
       <c r="G94" s="5"/>
@@ -3942,9 +2773,7 @@
         <v>82</v>
       </c>
       <c r="C95" s="5"/>
-      <c r="D95" s="5">
-        <v>82</v>
-      </c>
+      <c r="D95" s="5"/>
       <c r="E95" s="5"/>
       <c r="F95" s="7"/>
       <c r="G95" s="5"/>
@@ -3959,9 +2788,7 @@
         <v>83</v>
       </c>
       <c r="C96" s="5"/>
-      <c r="D96" s="5">
-        <v>83</v>
-      </c>
+      <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="F96" s="7"/>
       <c r="G96" s="5"/>
@@ -3976,9 +2803,7 @@
         <v>84</v>
       </c>
       <c r="C97" s="5"/>
-      <c r="D97" s="5">
-        <v>84</v>
-      </c>
+      <c r="D97" s="5"/>
       <c r="E97" s="5"/>
       <c r="F97" s="7"/>
       <c r="G97" s="5"/>
@@ -3993,9 +2818,7 @@
         <v>85</v>
       </c>
       <c r="C98" s="5"/>
-      <c r="D98" s="10">
-        <v>85</v>
-      </c>
+      <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="7"/>
       <c r="G98" s="5"/>
@@ -4010,9 +2833,7 @@
         <v>86</v>
       </c>
       <c r="C99" s="5"/>
-      <c r="D99" s="5">
-        <v>86</v>
-      </c>
+      <c r="D99" s="5"/>
       <c r="E99" s="5"/>
       <c r="F99" s="7"/>
       <c r="G99" s="5"/>
@@ -4027,9 +2848,7 @@
         <v>87</v>
       </c>
       <c r="C100" s="5"/>
-      <c r="D100" s="5">
-        <v>87</v>
-      </c>
+      <c r="D100" s="5"/>
       <c r="E100" s="5"/>
       <c r="F100" s="7"/>
       <c r="G100" s="5"/>
@@ -4044,9 +2863,7 @@
         <v>88</v>
       </c>
       <c r="C101" s="5"/>
-      <c r="D101" s="5">
-        <v>88</v>
-      </c>
+      <c r="D101" s="5"/>
       <c r="E101" s="5"/>
       <c r="F101" s="7"/>
       <c r="G101" s="5"/>
@@ -4061,9 +2878,7 @@
         <v>89</v>
       </c>
       <c r="C102" s="5"/>
-      <c r="D102" s="5">
-        <v>89</v>
-      </c>
+      <c r="D102" s="5"/>
       <c r="E102" s="5"/>
       <c r="F102" s="7"/>
       <c r="G102" s="5"/>
@@ -4078,9 +2893,7 @@
         <v>90</v>
       </c>
       <c r="C103" s="5"/>
-      <c r="D103" s="5">
-        <v>90</v>
-      </c>
+      <c r="D103" s="5"/>
       <c r="E103" s="5"/>
       <c r="F103" s="7"/>
       <c r="G103" s="5"/>
@@ -4095,9 +2908,7 @@
         <v>91</v>
       </c>
       <c r="C104" s="5"/>
-      <c r="D104" s="10">
-        <v>91</v>
-      </c>
+      <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="7"/>
       <c r="G104" s="5"/>
@@ -4112,9 +2923,7 @@
         <v>92</v>
       </c>
       <c r="C105" s="5"/>
-      <c r="D105" s="5">
-        <v>92</v>
-      </c>
+      <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="7"/>
       <c r="G105" s="5"/>
@@ -4129,9 +2938,7 @@
         <v>93</v>
       </c>
       <c r="C106" s="5"/>
-      <c r="D106" s="5">
-        <v>93</v>
-      </c>
+      <c r="D106" s="5"/>
       <c r="E106" s="5"/>
       <c r="F106" s="7"/>
       <c r="G106" s="5"/>
@@ -4146,9 +2953,7 @@
         <v>94</v>
       </c>
       <c r="C107" s="5"/>
-      <c r="D107" s="5">
-        <v>94</v>
-      </c>
+      <c r="D107" s="5"/>
       <c r="E107" s="5"/>
       <c r="F107" s="7"/>
       <c r="G107" s="5"/>
@@ -4163,9 +2968,7 @@
         <v>95</v>
       </c>
       <c r="C108" s="5"/>
-      <c r="D108" s="5">
-        <v>95</v>
-      </c>
+      <c r="D108" s="5"/>
       <c r="E108" s="5"/>
       <c r="F108" s="7"/>
       <c r="G108" s="5"/>
@@ -4180,9 +2983,7 @@
         <v>96</v>
       </c>
       <c r="C109" s="5"/>
-      <c r="D109" s="5">
-        <v>96</v>
-      </c>
+      <c r="D109" s="5"/>
       <c r="E109" s="5"/>
       <c r="F109" s="7"/>
       <c r="G109" s="5"/>
@@ -4197,9 +2998,7 @@
         <v>97</v>
       </c>
       <c r="C110" s="5"/>
-      <c r="D110" s="10">
-        <v>97</v>
-      </c>
+      <c r="D110" s="5"/>
       <c r="E110" s="5"/>
       <c r="F110" s="7"/>
       <c r="G110" s="5"/>
@@ -4214,9 +3013,7 @@
         <v>98</v>
       </c>
       <c r="C111" s="5"/>
-      <c r="D111" s="5">
-        <v>98</v>
-      </c>
+      <c r="D111" s="5"/>
       <c r="E111" s="5"/>
       <c r="F111" s="7"/>
       <c r="G111" s="5"/>
@@ -4231,9 +3028,7 @@
         <v>99</v>
       </c>
       <c r="C112" s="5"/>
-      <c r="D112" s="5">
-        <v>99</v>
-      </c>
+      <c r="D112" s="5"/>
       <c r="E112" s="5"/>
       <c r="F112" s="7"/>
       <c r="G112" s="5"/>
@@ -4248,9 +3043,7 @@
         <v>100</v>
       </c>
       <c r="C113" s="5"/>
-      <c r="D113" s="5">
-        <v>100</v>
-      </c>
+      <c r="D113" s="5"/>
       <c r="E113" s="5"/>
       <c r="F113" s="7"/>
       <c r="G113" s="5"/>
@@ -4265,9 +3058,7 @@
         <v>101</v>
       </c>
       <c r="C114" s="5"/>
-      <c r="D114" s="5">
-        <v>101</v>
-      </c>
+      <c r="D114" s="5"/>
       <c r="E114" s="5"/>
       <c r="F114" s="7"/>
       <c r="G114" s="5"/>
@@ -4282,9 +3073,7 @@
         <v>102</v>
       </c>
       <c r="C115" s="5"/>
-      <c r="D115" s="5">
-        <v>102</v>
-      </c>
+      <c r="D115" s="5"/>
       <c r="E115" s="5"/>
       <c r="F115" s="7"/>
       <c r="G115" s="5"/>
@@ -4299,9 +3088,7 @@
         <v>103</v>
       </c>
       <c r="C116" s="5"/>
-      <c r="D116" s="10">
-        <v>103</v>
-      </c>
+      <c r="D116" s="5"/>
       <c r="E116" s="5"/>
       <c r="F116" s="7"/>
       <c r="G116" s="5"/>
@@ -4316,9 +3103,7 @@
         <v>104</v>
       </c>
       <c r="C117" s="5"/>
-      <c r="D117" s="5">
-        <v>104</v>
-      </c>
+      <c r="D117" s="5"/>
       <c r="E117" s="5"/>
       <c r="F117" s="7"/>
       <c r="G117" s="5"/>
@@ -4333,9 +3118,7 @@
         <v>105</v>
       </c>
       <c r="C118" s="5"/>
-      <c r="D118" s="5">
-        <v>105</v>
-      </c>
+      <c r="D118" s="5"/>
       <c r="E118" s="5"/>
       <c r="F118" s="7"/>
       <c r="G118" s="5"/>
@@ -4350,9 +3133,7 @@
         <v>106</v>
       </c>
       <c r="C119" s="5"/>
-      <c r="D119" s="5">
-        <v>106</v>
-      </c>
+      <c r="D119" s="5"/>
       <c r="E119" s="5"/>
       <c r="F119" s="7"/>
       <c r="G119" s="5"/>
@@ -4367,9 +3148,7 @@
         <v>107</v>
       </c>
       <c r="C120" s="5"/>
-      <c r="D120" s="5">
-        <v>107</v>
-      </c>
+      <c r="D120" s="5"/>
       <c r="E120" s="5"/>
       <c r="F120" s="7"/>
       <c r="G120" s="5"/>
@@ -4384,9 +3163,7 @@
         <v>108</v>
       </c>
       <c r="C121" s="5"/>
-      <c r="D121" s="5">
-        <v>108</v>
-      </c>
+      <c r="D121" s="5"/>
       <c r="E121" s="5"/>
       <c r="F121" s="7"/>
       <c r="G121" s="5"/>
@@ -4401,9 +3178,7 @@
         <v>109</v>
       </c>
       <c r="C122" s="5"/>
-      <c r="D122" s="10">
-        <v>109</v>
-      </c>
+      <c r="D122" s="5"/>
       <c r="E122" s="5"/>
       <c r="F122" s="7"/>
       <c r="G122" s="5"/>
@@ -4418,9 +3193,7 @@
         <v>110</v>
       </c>
       <c r="C123" s="5"/>
-      <c r="D123" s="5">
-        <v>110</v>
-      </c>
+      <c r="D123" s="5"/>
       <c r="E123" s="5"/>
       <c r="F123" s="7"/>
       <c r="G123" s="5"/>
@@ -4435,9 +3208,7 @@
         <v>111</v>
       </c>
       <c r="C124" s="5"/>
-      <c r="D124" s="5">
-        <v>111</v>
-      </c>
+      <c r="D124" s="5"/>
       <c r="E124" s="5"/>
       <c r="F124" s="7"/>
       <c r="G124" s="5"/>
@@ -4452,9 +3223,7 @@
         <v>112</v>
       </c>
       <c r="C125" s="5"/>
-      <c r="D125" s="5">
-        <v>112</v>
-      </c>
+      <c r="D125" s="5"/>
       <c r="E125" s="5"/>
       <c r="F125" s="7"/>
       <c r="G125" s="5"/>
@@ -4469,9 +3238,7 @@
         <v>113</v>
       </c>
       <c r="C126" s="5"/>
-      <c r="D126" s="5">
-        <v>113</v>
-      </c>
+      <c r="D126" s="5"/>
       <c r="E126" s="5"/>
       <c r="F126" s="7"/>
       <c r="G126" s="5"/>
@@ -4486,9 +3253,7 @@
         <v>114</v>
       </c>
       <c r="C127" s="5"/>
-      <c r="D127" s="5">
-        <v>114</v>
-      </c>
+      <c r="D127" s="5"/>
       <c r="E127" s="5"/>
       <c r="F127" s="7"/>
       <c r="G127" s="5"/>
@@ -4503,9 +3268,7 @@
         <v>115</v>
       </c>
       <c r="C128" s="5"/>
-      <c r="D128" s="10">
-        <v>115</v>
-      </c>
+      <c r="D128" s="5"/>
       <c r="E128" s="5"/>
       <c r="F128" s="7"/>
       <c r="G128" s="5"/>
@@ -4520,9 +3283,7 @@
         <v>116</v>
       </c>
       <c r="C129" s="5"/>
-      <c r="D129" s="5">
-        <v>116</v>
-      </c>
+      <c r="D129" s="5"/>
       <c r="E129" s="5"/>
       <c r="F129" s="7"/>
       <c r="G129" s="5"/>
@@ -4537,9 +3298,7 @@
         <v>117</v>
       </c>
       <c r="C130" s="5"/>
-      <c r="D130" s="5">
-        <v>117</v>
-      </c>
+      <c r="D130" s="5"/>
       <c r="E130" s="5"/>
       <c r="F130" s="7"/>
       <c r="G130" s="5"/>
@@ -4554,9 +3313,7 @@
         <v>118</v>
       </c>
       <c r="C131" s="5"/>
-      <c r="D131" s="5">
-        <v>118</v>
-      </c>
+      <c r="D131" s="5"/>
       <c r="E131" s="5"/>
       <c r="F131" s="7"/>
       <c r="G131" s="5"/>
@@ -4571,9 +3328,7 @@
         <v>119</v>
       </c>
       <c r="C132" s="5"/>
-      <c r="D132" s="5">
-        <v>119</v>
-      </c>
+      <c r="D132" s="5"/>
       <c r="E132" s="5"/>
       <c r="F132" s="7"/>
       <c r="G132" s="5"/>
@@ -4588,9 +3343,7 @@
         <v>120</v>
       </c>
       <c r="C133" s="5"/>
-      <c r="D133" s="5">
-        <v>120</v>
-      </c>
+      <c r="D133" s="5"/>
       <c r="E133" s="5"/>
       <c r="F133" s="7"/>
       <c r="G133" s="5"/>
@@ -4605,9 +3358,7 @@
         <v>121</v>
       </c>
       <c r="C134" s="5"/>
-      <c r="D134" s="10">
-        <v>121</v>
-      </c>
+      <c r="D134" s="5"/>
       <c r="E134" s="5"/>
       <c r="F134" s="7"/>
       <c r="G134" s="5"/>
@@ -4622,9 +3373,7 @@
         <v>122</v>
       </c>
       <c r="C135" s="5"/>
-      <c r="D135" s="5">
-        <v>122</v>
-      </c>
+      <c r="D135" s="5"/>
       <c r="E135" s="5"/>
       <c r="F135" s="7"/>
       <c r="G135" s="5"/>
@@ -4639,9 +3388,7 @@
         <v>123</v>
       </c>
       <c r="C136" s="5"/>
-      <c r="D136" s="5">
-        <v>123</v>
-      </c>
+      <c r="D136" s="5"/>
       <c r="E136" s="5"/>
       <c r="F136" s="7"/>
       <c r="G136" s="5"/>
@@ -4656,9 +3403,7 @@
         <v>124</v>
       </c>
       <c r="C137" s="5"/>
-      <c r="D137" s="5">
-        <v>124</v>
-      </c>
+      <c r="D137" s="5"/>
       <c r="E137" s="5"/>
       <c r="F137" s="7"/>
       <c r="G137" s="5"/>
@@ -4673,9 +3418,7 @@
         <v>125</v>
       </c>
       <c r="C138" s="5"/>
-      <c r="D138" s="5">
-        <v>125</v>
-      </c>
+      <c r="D138" s="5"/>
       <c r="E138" s="5"/>
       <c r="F138" s="7"/>
       <c r="G138" s="5"/>
@@ -4690,9 +3433,7 @@
         <v>126</v>
       </c>
       <c r="C139" s="5"/>
-      <c r="D139" s="5">
-        <v>126</v>
-      </c>
+      <c r="D139" s="5"/>
       <c r="E139" s="5"/>
       <c r="F139" s="7"/>
       <c r="G139" s="5"/>
@@ -4707,9 +3448,7 @@
         <v>127</v>
       </c>
       <c r="C140" s="5"/>
-      <c r="D140" s="10">
-        <v>127</v>
-      </c>
+      <c r="D140" s="5"/>
       <c r="E140" s="5"/>
       <c r="F140" s="7"/>
       <c r="G140" s="5"/>
@@ -4724,9 +3463,7 @@
         <v>128</v>
       </c>
       <c r="C141" s="5"/>
-      <c r="D141" s="5">
-        <v>128</v>
-      </c>
+      <c r="D141" s="5"/>
       <c r="E141" s="5"/>
       <c r="F141" s="7"/>
       <c r="G141" s="5"/>
@@ -4741,9 +3478,7 @@
         <v>129</v>
       </c>
       <c r="C142" s="5"/>
-      <c r="D142" s="5">
-        <v>129</v>
-      </c>
+      <c r="D142" s="5"/>
       <c r="E142" s="5"/>
       <c r="F142" s="7"/>
       <c r="G142" s="5"/>
@@ -4758,9 +3493,7 @@
         <v>130</v>
       </c>
       <c r="C143" s="5"/>
-      <c r="D143" s="5">
-        <v>130</v>
-      </c>
+      <c r="D143" s="5"/>
       <c r="E143" s="5"/>
       <c r="F143" s="7"/>
       <c r="G143" s="5"/>
@@ -4775,9 +3508,7 @@
         <v>131</v>
       </c>
       <c r="C144" s="5"/>
-      <c r="D144" s="5">
-        <v>131</v>
-      </c>
+      <c r="D144" s="5"/>
       <c r="E144" s="5"/>
       <c r="F144" s="7"/>
       <c r="G144" s="5"/>
@@ -4792,9 +3523,7 @@
         <v>132</v>
       </c>
       <c r="C145" s="5"/>
-      <c r="D145" s="5">
-        <v>132</v>
-      </c>
+      <c r="D145" s="5"/>
       <c r="E145" s="5"/>
       <c r="F145" s="7"/>
       <c r="G145" s="5"/>
@@ -4809,9 +3538,7 @@
         <v>133</v>
       </c>
       <c r="C146" s="5"/>
-      <c r="D146" s="10">
-        <v>133</v>
-      </c>
+      <c r="D146" s="5"/>
       <c r="E146" s="5"/>
       <c r="F146" s="7"/>
       <c r="G146" s="5"/>
@@ -4826,9 +3553,7 @@
         <v>134</v>
       </c>
       <c r="C147" s="5"/>
-      <c r="D147" s="5">
-        <v>134</v>
-      </c>
+      <c r="D147" s="5"/>
       <c r="E147" s="5"/>
       <c r="F147" s="7"/>
       <c r="G147" s="5"/>
@@ -4843,9 +3568,7 @@
         <v>135</v>
       </c>
       <c r="C148" s="5"/>
-      <c r="D148" s="5">
-        <v>135</v>
-      </c>
+      <c r="D148" s="5"/>
       <c r="E148" s="5"/>
       <c r="F148" s="7"/>
       <c r="G148" s="5"/>
@@ -4860,9 +3583,7 @@
         <v>136</v>
       </c>
       <c r="C149" s="5"/>
-      <c r="D149" s="5">
-        <v>136</v>
-      </c>
+      <c r="D149" s="5"/>
       <c r="E149" s="5"/>
       <c r="F149" s="7"/>
       <c r="G149" s="5"/>
@@ -4877,9 +3598,7 @@
         <v>137</v>
       </c>
       <c r="C150" s="5"/>
-      <c r="D150" s="5">
-        <v>137</v>
-      </c>
+      <c r="D150" s="5"/>
       <c r="E150" s="5"/>
       <c r="F150" s="7"/>
       <c r="G150" s="5"/>
@@ -4894,9 +3613,7 @@
         <v>138</v>
       </c>
       <c r="C151" s="5"/>
-      <c r="D151" s="5">
-        <v>138</v>
-      </c>
+      <c r="D151" s="5"/>
       <c r="E151" s="5"/>
       <c r="F151" s="7"/>
       <c r="G151" s="5"/>
@@ -4911,9 +3628,7 @@
         <v>139</v>
       </c>
       <c r="C152" s="5"/>
-      <c r="D152" s="10">
-        <v>139</v>
-      </c>
+      <c r="D152" s="5"/>
       <c r="E152" s="5"/>
       <c r="F152" s="7"/>
       <c r="G152" s="5"/>
@@ -4928,9 +3643,7 @@
         <v>140</v>
       </c>
       <c r="C153" s="5"/>
-      <c r="D153" s="5">
-        <v>140</v>
-      </c>
+      <c r="D153" s="5"/>
       <c r="E153" s="5"/>
       <c r="F153" s="7"/>
       <c r="G153" s="5"/>
@@ -4945,9 +3658,7 @@
         <v>141</v>
       </c>
       <c r="C154" s="5"/>
-      <c r="D154" s="5">
-        <v>141</v>
-      </c>
+      <c r="D154" s="5"/>
       <c r="E154" s="5"/>
       <c r="F154" s="7"/>
       <c r="G154" s="5"/>
@@ -4962,9 +3673,7 @@
         <v>142</v>
       </c>
       <c r="C155" s="5"/>
-      <c r="D155" s="5">
-        <v>142</v>
-      </c>
+      <c r="D155" s="5"/>
       <c r="E155" s="5"/>
       <c r="F155" s="7"/>
       <c r="G155" s="5"/>
@@ -4979,9 +3688,7 @@
         <v>143</v>
       </c>
       <c r="C156" s="5"/>
-      <c r="D156" s="5">
-        <v>143</v>
-      </c>
+      <c r="D156" s="5"/>
       <c r="E156" s="5"/>
       <c r="F156" s="7"/>
       <c r="G156" s="5"/>
@@ -4996,9 +3703,7 @@
         <v>144</v>
       </c>
       <c r="C157" s="5"/>
-      <c r="D157" s="5">
-        <v>144</v>
-      </c>
+      <c r="D157" s="5"/>
       <c r="E157" s="5"/>
       <c r="F157" s="7"/>
       <c r="G157" s="5"/>
@@ -5013,9 +3718,7 @@
         <v>145</v>
       </c>
       <c r="C158" s="5"/>
-      <c r="D158" s="10">
-        <v>145</v>
-      </c>
+      <c r="D158" s="5"/>
       <c r="E158" s="5"/>
       <c r="F158" s="7"/>
       <c r="G158" s="5"/>
@@ -5030,9 +3733,7 @@
         <v>146</v>
       </c>
       <c r="C159" s="5"/>
-      <c r="D159" s="5">
-        <v>146</v>
-      </c>
+      <c r="D159" s="5"/>
       <c r="E159" s="5"/>
       <c r="F159" s="7"/>
       <c r="G159" s="5"/>
@@ -5047,9 +3748,7 @@
         <v>147</v>
       </c>
       <c r="C160" s="5"/>
-      <c r="D160" s="5">
-        <v>147</v>
-      </c>
+      <c r="D160" s="5"/>
       <c r="E160" s="5"/>
       <c r="F160" s="7"/>
       <c r="G160" s="5"/>
@@ -5064,9 +3763,7 @@
         <v>148</v>
       </c>
       <c r="C161" s="5"/>
-      <c r="D161" s="5">
-        <v>148</v>
-      </c>
+      <c r="D161" s="5"/>
       <c r="E161" s="5"/>
       <c r="F161" s="7"/>
       <c r="G161" s="5"/>
@@ -5081,9 +3778,7 @@
         <v>149</v>
       </c>
       <c r="C162" s="5"/>
-      <c r="D162" s="5">
-        <v>149</v>
-      </c>
+      <c r="D162" s="5"/>
       <c r="E162" s="5"/>
       <c r="F162" s="7"/>
       <c r="G162" s="5"/>
@@ -5098,9 +3793,7 @@
         <v>150</v>
       </c>
       <c r="C163" s="5"/>
-      <c r="D163" s="5">
-        <v>150</v>
-      </c>
+      <c r="D163" s="5"/>
       <c r="E163" s="5"/>
       <c r="F163" s="7"/>
       <c r="G163" s="5"/>
@@ -5115,9 +3808,7 @@
         <v>151</v>
       </c>
       <c r="C164" s="5"/>
-      <c r="D164" s="10">
-        <v>151</v>
-      </c>
+      <c r="D164" s="5"/>
       <c r="E164" s="5"/>
       <c r="F164" s="7"/>
       <c r="G164" s="5"/>
@@ -5132,9 +3823,7 @@
         <v>152</v>
       </c>
       <c r="C165" s="5"/>
-      <c r="D165" s="5">
-        <v>152</v>
-      </c>
+      <c r="D165" s="5"/>
       <c r="E165" s="5"/>
       <c r="F165" s="7"/>
       <c r="G165" s="5"/>
@@ -5149,9 +3838,7 @@
         <v>153</v>
       </c>
       <c r="C166" s="5"/>
-      <c r="D166" s="5">
-        <v>153</v>
-      </c>
+      <c r="D166" s="5"/>
       <c r="E166" s="5"/>
       <c r="F166" s="7"/>
       <c r="G166" s="5"/>
@@ -5166,9 +3853,7 @@
         <v>154</v>
       </c>
       <c r="C167" s="5"/>
-      <c r="D167" s="5">
-        <v>154</v>
-      </c>
+      <c r="D167" s="5"/>
       <c r="E167" s="5"/>
       <c r="F167" s="7"/>
       <c r="G167" s="5"/>
@@ -5183,9 +3868,7 @@
         <v>155</v>
       </c>
       <c r="C168" s="5"/>
-      <c r="D168" s="5">
-        <v>155</v>
-      </c>
+      <c r="D168" s="5"/>
       <c r="E168" s="5"/>
       <c r="F168" s="7"/>
       <c r="G168" s="5"/>
@@ -5200,9 +3883,7 @@
         <v>156</v>
       </c>
       <c r="C169" s="5"/>
-      <c r="D169" s="5">
-        <v>156</v>
-      </c>
+      <c r="D169" s="5"/>
       <c r="E169" s="5"/>
       <c r="F169" s="7"/>
       <c r="G169" s="5"/>
@@ -5217,9 +3898,7 @@
         <v>157</v>
       </c>
       <c r="C170" s="5"/>
-      <c r="D170" s="10">
-        <v>157</v>
-      </c>
+      <c r="D170" s="5"/>
       <c r="E170" s="5"/>
       <c r="F170" s="7"/>
       <c r="G170" s="5"/>
@@ -5234,9 +3913,7 @@
         <v>158</v>
       </c>
       <c r="C171" s="5"/>
-      <c r="D171" s="5">
-        <v>158</v>
-      </c>
+      <c r="D171" s="5"/>
       <c r="E171" s="5"/>
       <c r="F171" s="7"/>
       <c r="G171" s="5"/>
@@ -5251,9 +3928,7 @@
         <v>159</v>
       </c>
       <c r="C172" s="5"/>
-      <c r="D172" s="5">
-        <v>159</v>
-      </c>
+      <c r="D172" s="5"/>
       <c r="E172" s="5"/>
       <c r="F172" s="7"/>
       <c r="G172" s="5"/>
@@ -5268,9 +3943,7 @@
         <v>160</v>
       </c>
       <c r="C173" s="5"/>
-      <c r="D173" s="5">
-        <v>160</v>
-      </c>
+      <c r="D173" s="5"/>
       <c r="E173" s="5"/>
       <c r="F173" s="7"/>
       <c r="G173" s="5"/>
@@ -5285,9 +3958,7 @@
         <v>161</v>
       </c>
       <c r="C174" s="5"/>
-      <c r="D174" s="5">
-        <v>161</v>
-      </c>
+      <c r="D174" s="5"/>
       <c r="E174" s="5"/>
       <c r="F174" s="7"/>
       <c r="G174" s="5"/>
@@ -5302,9 +3973,7 @@
         <v>162</v>
       </c>
       <c r="C175" s="5"/>
-      <c r="D175" s="5">
-        <v>162</v>
-      </c>
+      <c r="D175" s="5"/>
       <c r="E175" s="5"/>
       <c r="F175" s="7"/>
       <c r="G175" s="5"/>
@@ -5319,9 +3988,7 @@
         <v>163</v>
       </c>
       <c r="C176" s="5"/>
-      <c r="D176" s="10">
-        <v>163</v>
-      </c>
+      <c r="D176" s="5"/>
       <c r="E176" s="5"/>
       <c r="F176" s="7"/>
       <c r="G176" s="5"/>
@@ -5336,9 +4003,7 @@
         <v>164</v>
       </c>
       <c r="C177" s="5"/>
-      <c r="D177" s="5">
-        <v>164</v>
-      </c>
+      <c r="D177" s="5"/>
       <c r="E177" s="5"/>
       <c r="F177" s="7"/>
       <c r="G177" s="5"/>
@@ -5353,9 +4018,7 @@
         <v>165</v>
       </c>
       <c r="C178" s="5"/>
-      <c r="D178" s="5">
-        <v>165</v>
-      </c>
+      <c r="D178" s="5"/>
       <c r="E178" s="5"/>
       <c r="F178" s="7"/>
       <c r="G178" s="5"/>
@@ -5370,9 +4033,7 @@
         <v>166</v>
       </c>
       <c r="C179" s="5"/>
-      <c r="D179" s="5">
-        <v>166</v>
-      </c>
+      <c r="D179" s="5"/>
       <c r="E179" s="5"/>
       <c r="F179" s="7"/>
       <c r="G179" s="5"/>
@@ -5387,9 +4048,7 @@
         <v>167</v>
       </c>
       <c r="C180" s="5"/>
-      <c r="D180" s="5">
-        <v>167</v>
-      </c>
+      <c r="D180" s="5"/>
       <c r="E180" s="5"/>
       <c r="F180" s="7"/>
       <c r="G180" s="5"/>
@@ -5404,9 +4063,7 @@
         <v>168</v>
       </c>
       <c r="C181" s="5"/>
-      <c r="D181" s="5">
-        <v>168</v>
-      </c>
+      <c r="D181" s="5"/>
       <c r="E181" s="5"/>
       <c r="F181" s="7"/>
       <c r="G181" s="5"/>
@@ -5421,9 +4078,7 @@
         <v>169</v>
       </c>
       <c r="C182" s="5"/>
-      <c r="D182" s="10">
-        <v>169</v>
-      </c>
+      <c r="D182" s="5"/>
       <c r="E182" s="5"/>
       <c r="F182" s="7"/>
       <c r="G182" s="5"/>
@@ -5438,9 +4093,7 @@
         <v>170</v>
       </c>
       <c r="C183" s="5"/>
-      <c r="D183" s="5">
-        <v>170</v>
-      </c>
+      <c r="D183" s="5"/>
       <c r="E183" s="5"/>
       <c r="F183" s="7"/>
       <c r="G183" s="5"/>
@@ -5455,9 +4108,7 @@
         <v>171</v>
       </c>
       <c r="C184" s="5"/>
-      <c r="D184" s="5">
-        <v>171</v>
-      </c>
+      <c r="D184" s="5"/>
       <c r="E184" s="5"/>
       <c r="F184" s="7"/>
       <c r="G184" s="5"/>
@@ -5472,9 +4123,7 @@
         <v>172</v>
       </c>
       <c r="C185" s="5"/>
-      <c r="D185" s="5">
-        <v>172</v>
-      </c>
+      <c r="D185" s="5"/>
       <c r="E185" s="5"/>
       <c r="F185" s="7"/>
       <c r="G185" s="5"/>
@@ -5489,9 +4138,7 @@
         <v>173</v>
       </c>
       <c r="C186" s="5"/>
-      <c r="D186" s="5">
-        <v>173</v>
-      </c>
+      <c r="D186" s="5"/>
       <c r="E186" s="5"/>
       <c r="F186" s="7"/>
       <c r="G186" s="5"/>
@@ -5506,9 +4153,7 @@
         <v>174</v>
       </c>
       <c r="C187" s="5"/>
-      <c r="D187" s="5">
-        <v>174</v>
-      </c>
+      <c r="D187" s="5"/>
       <c r="E187" s="5"/>
       <c r="F187" s="7"/>
       <c r="G187" s="5"/>
@@ -5523,9 +4168,7 @@
         <v>175</v>
       </c>
       <c r="C188" s="5"/>
-      <c r="D188" s="10">
-        <v>175</v>
-      </c>
+      <c r="D188" s="5"/>
       <c r="E188" s="5"/>
       <c r="F188" s="7"/>
       <c r="G188" s="5"/>
@@ -5540,9 +4183,7 @@
         <v>176</v>
       </c>
       <c r="C189" s="5"/>
-      <c r="D189" s="5">
-        <v>176</v>
-      </c>
+      <c r="D189" s="5"/>
       <c r="E189" s="5"/>
       <c r="F189" s="7"/>
       <c r="G189" s="5"/>
@@ -5557,9 +4198,7 @@
         <v>177</v>
       </c>
       <c r="C190" s="5"/>
-      <c r="D190" s="5">
-        <v>177</v>
-      </c>
+      <c r="D190" s="5"/>
       <c r="E190" s="5"/>
       <c r="F190" s="7"/>
       <c r="G190" s="5"/>
@@ -5574,9 +4213,7 @@
         <v>178</v>
       </c>
       <c r="C191" s="5"/>
-      <c r="D191" s="5">
-        <v>178</v>
-      </c>
+      <c r="D191" s="5"/>
       <c r="E191" s="5"/>
       <c r="F191" s="7"/>
       <c r="G191" s="5"/>
@@ -5591,9 +4228,7 @@
         <v>179</v>
       </c>
       <c r="C192" s="5"/>
-      <c r="D192" s="5">
-        <v>179</v>
-      </c>
+      <c r="D192" s="5"/>
       <c r="E192" s="5"/>
       <c r="F192" s="7"/>
       <c r="G192" s="5"/>
@@ -5608,9 +4243,7 @@
         <v>180</v>
       </c>
       <c r="C193" s="5"/>
-      <c r="D193" s="5">
-        <v>180</v>
-      </c>
+      <c r="D193" s="5"/>
       <c r="E193" s="5"/>
       <c r="F193" s="7"/>
       <c r="G193" s="5"/>
@@ -5625,9 +4258,7 @@
         <v>181</v>
       </c>
       <c r="C194" s="5"/>
-      <c r="D194" s="10">
-        <v>181</v>
-      </c>
+      <c r="D194" s="5"/>
       <c r="E194" s="5"/>
       <c r="F194" s="7"/>
       <c r="G194" s="5"/>
@@ -5642,9 +4273,7 @@
         <v>182</v>
       </c>
       <c r="C195" s="5"/>
-      <c r="D195" s="5">
-        <v>182</v>
-      </c>
+      <c r="D195" s="5"/>
       <c r="E195" s="5"/>
       <c r="F195" s="7"/>
       <c r="G195" s="5"/>
@@ -5659,9 +4288,7 @@
         <v>183</v>
       </c>
       <c r="C196" s="5"/>
-      <c r="D196" s="5">
-        <v>183</v>
-      </c>
+      <c r="D196" s="5"/>
       <c r="E196" s="5"/>
       <c r="F196" s="7"/>
       <c r="G196" s="5"/>
@@ -5676,9 +4303,7 @@
         <v>184</v>
       </c>
       <c r="C197" s="5"/>
-      <c r="D197" s="5">
-        <v>184</v>
-      </c>
+      <c r="D197" s="5"/>
       <c r="E197" s="5"/>
       <c r="F197" s="7"/>
       <c r="G197" s="5"/>
@@ -5693,9 +4318,7 @@
         <v>185</v>
       </c>
       <c r="C198" s="5"/>
-      <c r="D198" s="5">
-        <v>185</v>
-      </c>
+      <c r="D198" s="5"/>
       <c r="E198" s="5"/>
       <c r="F198" s="7"/>
       <c r="G198" s="5"/>
@@ -5710,9 +4333,7 @@
         <v>186</v>
       </c>
       <c r="C199" s="5"/>
-      <c r="D199" s="5">
-        <v>186</v>
-      </c>
+      <c r="D199" s="5"/>
       <c r="E199" s="5"/>
       <c r="F199" s="7"/>
       <c r="G199" s="5"/>
@@ -5727,9 +4348,7 @@
         <v>187</v>
       </c>
       <c r="C200" s="5"/>
-      <c r="D200" s="10">
-        <v>187</v>
-      </c>
+      <c r="D200" s="5"/>
       <c r="E200" s="5"/>
       <c r="F200" s="7"/>
       <c r="G200" s="5"/>
@@ -5744,9 +4363,7 @@
         <v>188</v>
       </c>
       <c r="C201" s="5"/>
-      <c r="D201" s="5">
-        <v>188</v>
-      </c>
+      <c r="D201" s="5"/>
       <c r="E201" s="5"/>
       <c r="F201" s="7"/>
       <c r="G201" s="5"/>
@@ -5761,9 +4378,7 @@
         <v>189</v>
       </c>
       <c r="C202" s="5"/>
-      <c r="D202" s="5">
-        <v>189</v>
-      </c>
+      <c r="D202" s="5"/>
       <c r="E202" s="5"/>
       <c r="F202" s="7"/>
       <c r="G202" s="5"/>
@@ -5778,9 +4393,7 @@
         <v>190</v>
       </c>
       <c r="C203" s="5"/>
-      <c r="D203" s="5">
-        <v>190</v>
-      </c>
+      <c r="D203" s="5"/>
       <c r="E203" s="5"/>
       <c r="F203" s="7"/>
       <c r="G203" s="5"/>
@@ -5795,9 +4408,7 @@
         <v>191</v>
       </c>
       <c r="C204" s="5"/>
-      <c r="D204" s="5">
-        <v>191</v>
-      </c>
+      <c r="D204" s="5"/>
       <c r="E204" s="5"/>
       <c r="F204" s="7"/>
       <c r="G204" s="5"/>
@@ -5812,9 +4423,7 @@
         <v>192</v>
       </c>
       <c r="C205" s="5"/>
-      <c r="D205" s="5">
-        <v>192</v>
-      </c>
+      <c r="D205" s="5"/>
       <c r="E205" s="5"/>
       <c r="F205" s="7"/>
       <c r="G205" s="5"/>
@@ -5829,9 +4438,7 @@
         <v>193</v>
       </c>
       <c r="C206" s="5"/>
-      <c r="D206" s="10">
-        <v>193</v>
-      </c>
+      <c r="D206" s="5"/>
       <c r="E206" s="5"/>
       <c r="F206" s="7"/>
       <c r="G206" s="5"/>
@@ -5846,9 +4453,7 @@
         <v>194</v>
       </c>
       <c r="C207" s="5"/>
-      <c r="D207" s="5">
-        <v>194</v>
-      </c>
+      <c r="D207" s="5"/>
       <c r="E207" s="5"/>
       <c r="F207" s="7"/>
       <c r="G207" s="5"/>
@@ -5863,9 +4468,7 @@
         <v>195</v>
       </c>
       <c r="C208" s="5"/>
-      <c r="D208" s="5">
-        <v>195</v>
-      </c>
+      <c r="D208" s="5"/>
       <c r="E208" s="5"/>
       <c r="F208" s="7"/>
       <c r="G208" s="5"/>
@@ -5880,9 +4483,7 @@
         <v>196</v>
       </c>
       <c r="C209" s="5"/>
-      <c r="D209" s="5">
-        <v>196</v>
-      </c>
+      <c r="D209" s="5"/>
       <c r="E209" s="5"/>
       <c r="F209" s="7"/>
       <c r="G209" s="5"/>
@@ -5897,9 +4498,7 @@
         <v>197</v>
       </c>
       <c r="C210" s="5"/>
-      <c r="D210" s="5">
-        <v>197</v>
-      </c>
+      <c r="D210" s="5"/>
       <c r="E210" s="5"/>
       <c r="F210" s="7"/>
       <c r="G210" s="5"/>
@@ -5914,9 +4513,7 @@
         <v>198</v>
       </c>
       <c r="C211" s="5"/>
-      <c r="D211" s="5">
-        <v>198</v>
-      </c>
+      <c r="D211" s="5"/>
       <c r="E211" s="5"/>
       <c r="F211" s="7"/>
       <c r="G211" s="5"/>
@@ -5931,9 +4528,7 @@
         <v>199</v>
       </c>
       <c r="C212" s="5"/>
-      <c r="D212" s="10">
-        <v>199</v>
-      </c>
+      <c r="D212" s="5"/>
       <c r="E212" s="5"/>
       <c r="F212" s="7"/>
       <c r="G212" s="5"/>
@@ -5948,9 +4543,7 @@
         <v>200</v>
       </c>
       <c r="C213" s="5"/>
-      <c r="D213" s="5">
-        <v>200</v>
-      </c>
+      <c r="D213" s="5"/>
       <c r="E213" s="5"/>
       <c r="F213" s="7"/>
       <c r="G213" s="5"/>
@@ -5965,9 +4558,7 @@
         <v>201</v>
       </c>
       <c r="C214" s="5"/>
-      <c r="D214" s="5">
-        <v>201</v>
-      </c>
+      <c r="D214" s="5"/>
       <c r="E214" s="5"/>
       <c r="F214" s="7"/>
       <c r="G214" s="5"/>
@@ -5982,9 +4573,7 @@
         <v>202</v>
       </c>
       <c r="C215" s="5"/>
-      <c r="D215" s="5">
-        <v>202</v>
-      </c>
+      <c r="D215" s="5"/>
       <c r="E215" s="5"/>
       <c r="F215" s="7"/>
       <c r="G215" s="5"/>
@@ -5999,9 +4588,7 @@
         <v>203</v>
       </c>
       <c r="C216" s="5"/>
-      <c r="D216" s="5">
-        <v>203</v>
-      </c>
+      <c r="D216" s="5"/>
       <c r="E216" s="5"/>
       <c r="F216" s="7"/>
       <c r="G216" s="5"/>
@@ -6016,9 +4603,7 @@
         <v>204</v>
       </c>
       <c r="C217" s="5"/>
-      <c r="D217" s="5">
-        <v>204</v>
-      </c>
+      <c r="D217" s="5"/>
       <c r="E217" s="5"/>
       <c r="F217" s="7"/>
       <c r="G217" s="5"/>
@@ -6033,9 +4618,7 @@
         <v>205</v>
       </c>
       <c r="C218" s="5"/>
-      <c r="D218" s="10">
-        <v>205</v>
-      </c>
+      <c r="D218" s="5"/>
       <c r="E218" s="5"/>
       <c r="F218" s="7"/>
       <c r="G218" s="5"/>
@@ -6050,9 +4633,7 @@
         <v>206</v>
       </c>
       <c r="C219" s="5"/>
-      <c r="D219" s="5">
-        <v>206</v>
-      </c>
+      <c r="D219" s="5"/>
       <c r="E219" s="5"/>
       <c r="F219" s="7"/>
       <c r="G219" s="5"/>
@@ -6067,9 +4648,7 @@
         <v>207</v>
       </c>
       <c r="C220" s="5"/>
-      <c r="D220" s="5">
-        <v>207</v>
-      </c>
+      <c r="D220" s="5"/>
       <c r="E220" s="5"/>
       <c r="F220" s="7"/>
       <c r="G220" s="5"/>
@@ -6084,9 +4663,7 @@
         <v>208</v>
       </c>
       <c r="C221" s="5"/>
-      <c r="D221" s="5">
-        <v>208</v>
-      </c>
+      <c r="D221" s="5"/>
       <c r="E221" s="5"/>
       <c r="F221" s="7"/>
       <c r="G221" s="5"/>
@@ -6101,9 +4678,7 @@
         <v>209</v>
       </c>
       <c r="C222" s="5"/>
-      <c r="D222" s="5">
-        <v>209</v>
-      </c>
+      <c r="D222" s="5"/>
       <c r="E222" s="5"/>
       <c r="F222" s="7"/>
       <c r="G222" s="5"/>
@@ -6118,9 +4693,7 @@
         <v>210</v>
       </c>
       <c r="C223" s="5"/>
-      <c r="D223" s="5">
-        <v>210</v>
-      </c>
+      <c r="D223" s="5"/>
       <c r="E223" s="5"/>
       <c r="F223" s="7"/>
       <c r="G223" s="5"/>
@@ -6135,9 +4708,7 @@
         <v>211</v>
       </c>
       <c r="C224" s="5"/>
-      <c r="D224" s="10">
-        <v>211</v>
-      </c>
+      <c r="D224" s="5"/>
       <c r="E224" s="5"/>
       <c r="F224" s="7"/>
       <c r="G224" s="5"/>
@@ -6152,9 +4723,7 @@
         <v>212</v>
       </c>
       <c r="C225" s="5"/>
-      <c r="D225" s="5">
-        <v>212</v>
-      </c>
+      <c r="D225" s="5"/>
       <c r="E225" s="5"/>
       <c r="F225" s="7"/>
       <c r="G225" s="5"/>
@@ -6169,9 +4738,7 @@
         <v>213</v>
       </c>
       <c r="C226" s="5"/>
-      <c r="D226" s="5">
-        <v>213</v>
-      </c>
+      <c r="D226" s="5"/>
       <c r="E226" s="5"/>
       <c r="F226" s="7"/>
       <c r="G226" s="5"/>
@@ -6186,9 +4753,7 @@
         <v>214</v>
       </c>
       <c r="C227" s="5"/>
-      <c r="D227" s="5">
-        <v>214</v>
-      </c>
+      <c r="D227" s="5"/>
       <c r="E227" s="5"/>
       <c r="F227" s="7"/>
       <c r="G227" s="5"/>
@@ -6203,9 +4768,7 @@
         <v>215</v>
       </c>
       <c r="C228" s="5"/>
-      <c r="D228" s="5">
-        <v>215</v>
-      </c>
+      <c r="D228" s="5"/>
       <c r="E228" s="5"/>
       <c r="F228" s="7"/>
       <c r="G228" s="5"/>
@@ -6220,9 +4783,7 @@
         <v>216</v>
       </c>
       <c r="C229" s="5"/>
-      <c r="D229" s="5">
-        <v>216</v>
-      </c>
+      <c r="D229" s="5"/>
       <c r="E229" s="5"/>
       <c r="F229" s="7"/>
       <c r="G229" s="5"/>
@@ -6237,9 +4798,7 @@
         <v>217</v>
       </c>
       <c r="C230" s="5"/>
-      <c r="D230" s="10">
-        <v>217</v>
-      </c>
+      <c r="D230" s="5"/>
       <c r="E230" s="5"/>
       <c r="F230" s="7"/>
       <c r="G230" s="5"/>
@@ -6254,9 +4813,7 @@
         <v>218</v>
       </c>
       <c r="C231" s="5"/>
-      <c r="D231" s="5">
-        <v>218</v>
-      </c>
+      <c r="D231" s="5"/>
       <c r="E231" s="5"/>
       <c r="F231" s="7"/>
       <c r="G231" s="5"/>
@@ -6271,9 +4828,7 @@
         <v>219</v>
       </c>
       <c r="C232" s="5"/>
-      <c r="D232" s="5">
-        <v>219</v>
-      </c>
+      <c r="D232" s="5"/>
       <c r="E232" s="5"/>
       <c r="F232" s="7"/>
       <c r="G232" s="5"/>
@@ -6288,9 +4843,7 @@
         <v>220</v>
       </c>
       <c r="C233" s="5"/>
-      <c r="D233" s="5">
-        <v>220</v>
-      </c>
+      <c r="D233" s="5"/>
       <c r="E233" s="5"/>
       <c r="F233" s="7"/>
       <c r="G233" s="5"/>
@@ -6305,9 +4858,7 @@
         <v>221</v>
       </c>
       <c r="C234" s="5"/>
-      <c r="D234" s="5">
-        <v>221</v>
-      </c>
+      <c r="D234" s="5"/>
       <c r="E234" s="5"/>
       <c r="F234" s="7"/>
       <c r="G234" s="5"/>
@@ -6322,9 +4873,7 @@
         <v>222</v>
       </c>
       <c r="C235" s="5"/>
-      <c r="D235" s="5">
-        <v>222</v>
-      </c>
+      <c r="D235" s="5"/>
       <c r="E235" s="5"/>
       <c r="F235" s="7"/>
       <c r="G235" s="5"/>
@@ -6339,9 +4888,7 @@
         <v>223</v>
       </c>
       <c r="C236" s="5"/>
-      <c r="D236" s="10">
-        <v>223</v>
-      </c>
+      <c r="D236" s="5"/>
       <c r="E236" s="5"/>
       <c r="F236" s="7"/>
       <c r="G236" s="5"/>
@@ -6356,9 +4903,7 @@
         <v>224</v>
       </c>
       <c r="C237" s="5"/>
-      <c r="D237" s="5">
-        <v>224</v>
-      </c>
+      <c r="D237" s="5"/>
       <c r="E237" s="5"/>
       <c r="F237" s="7"/>
       <c r="G237" s="5"/>
@@ -6373,9 +4918,7 @@
         <v>225</v>
       </c>
       <c r="C238" s="5"/>
-      <c r="D238" s="5">
-        <v>225</v>
-      </c>
+      <c r="D238" s="5"/>
       <c r="E238" s="5"/>
       <c r="F238" s="7"/>
       <c r="G238" s="5"/>
@@ -6390,9 +4933,7 @@
         <v>226</v>
       </c>
       <c r="C239" s="5"/>
-      <c r="D239" s="5">
-        <v>226</v>
-      </c>
+      <c r="D239" s="5"/>
       <c r="E239" s="5"/>
       <c r="F239" s="7"/>
       <c r="G239" s="5"/>
@@ -6407,9 +4948,7 @@
         <v>227</v>
       </c>
       <c r="C240" s="5"/>
-      <c r="D240" s="5">
-        <v>227</v>
-      </c>
+      <c r="D240" s="5"/>
       <c r="E240" s="5"/>
       <c r="F240" s="7"/>
       <c r="G240" s="5"/>
@@ -6424,9 +4963,7 @@
         <v>228</v>
       </c>
       <c r="C241" s="5"/>
-      <c r="D241" s="5">
-        <v>228</v>
-      </c>
+      <c r="D241" s="5"/>
       <c r="E241" s="5"/>
       <c r="F241" s="7"/>
       <c r="G241" s="5"/>
@@ -6441,9 +4978,7 @@
         <v>229</v>
       </c>
       <c r="C242" s="5"/>
-      <c r="D242" s="10">
-        <v>229</v>
-      </c>
+      <c r="D242" s="5"/>
       <c r="E242" s="5"/>
       <c r="F242" s="7"/>
       <c r="G242" s="5"/>
@@ -6458,9 +4993,7 @@
         <v>230</v>
       </c>
       <c r="C243" s="5"/>
-      <c r="D243" s="5">
-        <v>230</v>
-      </c>
+      <c r="D243" s="5"/>
       <c r="E243" s="5"/>
       <c r="F243" s="7"/>
       <c r="G243" s="5"/>
@@ -6475,9 +5008,7 @@
         <v>231</v>
       </c>
       <c r="C244" s="5"/>
-      <c r="D244" s="5">
-        <v>231</v>
-      </c>
+      <c r="D244" s="5"/>
       <c r="E244" s="5"/>
       <c r="F244" s="7"/>
       <c r="G244" s="5"/>
@@ -6492,9 +5023,7 @@
         <v>232</v>
       </c>
       <c r="C245" s="5"/>
-      <c r="D245" s="5">
-        <v>232</v>
-      </c>
+      <c r="D245" s="5"/>
       <c r="E245" s="5"/>
       <c r="F245" s="7"/>
       <c r="G245" s="5"/>
@@ -6509,9 +5038,7 @@
         <v>233</v>
       </c>
       <c r="C246" s="5"/>
-      <c r="D246" s="5">
-        <v>233</v>
-      </c>
+      <c r="D246" s="5"/>
       <c r="E246" s="5"/>
       <c r="F246" s="7"/>
       <c r="G246" s="5"/>
@@ -6526,9 +5053,7 @@
         <v>234</v>
       </c>
       <c r="C247" s="5"/>
-      <c r="D247" s="5">
-        <v>234</v>
-      </c>
+      <c r="D247" s="5"/>
       <c r="E247" s="5"/>
       <c r="F247" s="7"/>
       <c r="G247" s="5"/>
@@ -6543,9 +5068,7 @@
         <v>235</v>
       </c>
       <c r="C248" s="5"/>
-      <c r="D248" s="10">
-        <v>235</v>
-      </c>
+      <c r="D248" s="5"/>
       <c r="E248" s="5"/>
       <c r="F248" s="7"/>
       <c r="G248" s="5"/>
@@ -6560,9 +5083,7 @@
         <v>236</v>
       </c>
       <c r="C249" s="5"/>
-      <c r="D249" s="5">
-        <v>236</v>
-      </c>
+      <c r="D249" s="5"/>
       <c r="E249" s="5"/>
       <c r="F249" s="7"/>
       <c r="G249" s="5"/>
@@ -6577,9 +5098,7 @@
         <v>237</v>
       </c>
       <c r="C250" s="5"/>
-      <c r="D250" s="5">
-        <v>237</v>
-      </c>
+      <c r="D250" s="5"/>
       <c r="E250" s="5"/>
       <c r="F250" s="7"/>
       <c r="G250" s="5"/>
@@ -6594,9 +5113,7 @@
         <v>238</v>
       </c>
       <c r="C251" s="5"/>
-      <c r="D251" s="5">
-        <v>238</v>
-      </c>
+      <c r="D251" s="5"/>
       <c r="E251" s="5"/>
       <c r="F251" s="7"/>
       <c r="G251" s="5"/>
@@ -6611,9 +5128,7 @@
         <v>239</v>
       </c>
       <c r="C252" s="5"/>
-      <c r="D252" s="5">
-        <v>239</v>
-      </c>
+      <c r="D252" s="5"/>
       <c r="E252" s="5"/>
       <c r="F252" s="7"/>
       <c r="G252" s="5"/>
@@ -6628,9 +5143,7 @@
         <v>240</v>
       </c>
       <c r="C253" s="5"/>
-      <c r="D253" s="5">
-        <v>240</v>
-      </c>
+      <c r="D253" s="5"/>
       <c r="E253" s="5"/>
       <c r="F253" s="7"/>
       <c r="G253" s="5"/>
@@ -6645,9 +5158,7 @@
         <v>241</v>
       </c>
       <c r="C254" s="5"/>
-      <c r="D254" s="10">
-        <v>241</v>
-      </c>
+      <c r="D254" s="5"/>
       <c r="E254" s="5"/>
       <c r="F254" s="7"/>
       <c r="G254" s="5"/>
@@ -6662,9 +5173,7 @@
         <v>242</v>
       </c>
       <c r="C255" s="5"/>
-      <c r="D255" s="5">
-        <v>242</v>
-      </c>
+      <c r="D255" s="5"/>
       <c r="E255" s="5"/>
       <c r="F255" s="7"/>
       <c r="G255" s="5"/>
@@ -6679,9 +5188,7 @@
         <v>243</v>
       </c>
       <c r="C256" s="5"/>
-      <c r="D256" s="5">
-        <v>243</v>
-      </c>
+      <c r="D256" s="5"/>
       <c r="E256" s="5"/>
       <c r="F256" s="7"/>
       <c r="G256" s="5"/>
@@ -6696,9 +5203,7 @@
         <v>244</v>
       </c>
       <c r="C257" s="5"/>
-      <c r="D257" s="5">
-        <v>244</v>
-      </c>
+      <c r="D257" s="5"/>
       <c r="E257" s="5"/>
       <c r="F257" s="7"/>
       <c r="G257" s="5"/>
@@ -6713,9 +5218,7 @@
         <v>245</v>
       </c>
       <c r="C258" s="5"/>
-      <c r="D258" s="5">
-        <v>245</v>
-      </c>
+      <c r="D258" s="5"/>
       <c r="E258" s="5"/>
       <c r="F258" s="7"/>
       <c r="G258" s="5"/>
@@ -6730,9 +5233,7 @@
         <v>246</v>
       </c>
       <c r="C259" s="5"/>
-      <c r="D259" s="5">
-        <v>246</v>
-      </c>
+      <c r="D259" s="5"/>
       <c r="E259" s="5"/>
       <c r="F259" s="7"/>
       <c r="G259" s="5"/>
@@ -6747,9 +5248,7 @@
         <v>247</v>
       </c>
       <c r="C260" s="5"/>
-      <c r="D260" s="10">
-        <v>247</v>
-      </c>
+      <c r="D260" s="5"/>
       <c r="E260" s="5"/>
       <c r="F260" s="7"/>
       <c r="G260" s="5"/>
@@ -6764,9 +5263,7 @@
         <v>248</v>
       </c>
       <c r="C261" s="5"/>
-      <c r="D261" s="5">
-        <v>248</v>
-      </c>
+      <c r="D261" s="5"/>
       <c r="E261" s="5"/>
       <c r="F261" s="7"/>
       <c r="G261" s="5"/>
@@ -6781,9 +5278,7 @@
         <v>249</v>
       </c>
       <c r="C262" s="5"/>
-      <c r="D262" s="5">
-        <v>249</v>
-      </c>
+      <c r="D262" s="5"/>
       <c r="E262" s="5"/>
       <c r="F262" s="7"/>
       <c r="G262" s="5"/>
@@ -6798,9 +5293,7 @@
         <v>250</v>
       </c>
       <c r="C263" s="5"/>
-      <c r="D263" s="5">
-        <v>250</v>
-      </c>
+      <c r="D263" s="5"/>
       <c r="E263" s="5"/>
       <c r="F263" s="7"/>
       <c r="G263" s="5"/>
@@ -6815,9 +5308,7 @@
         <v>251</v>
       </c>
       <c r="C264" s="5"/>
-      <c r="D264" s="5">
-        <v>251</v>
-      </c>
+      <c r="D264" s="5"/>
       <c r="E264" s="5"/>
       <c r="F264" s="7"/>
       <c r="G264" s="5"/>
@@ -6832,9 +5323,7 @@
         <v>252</v>
       </c>
       <c r="C265" s="5"/>
-      <c r="D265" s="5">
-        <v>252</v>
-      </c>
+      <c r="D265" s="5"/>
       <c r="E265" s="5"/>
       <c r="F265" s="7"/>
       <c r="G265" s="5"/>
@@ -6849,9 +5338,7 @@
         <v>253</v>
       </c>
       <c r="C266" s="5"/>
-      <c r="D266" s="10">
-        <v>253</v>
-      </c>
+      <c r="D266" s="5"/>
       <c r="E266" s="5"/>
       <c r="F266" s="7"/>
       <c r="G266" s="5"/>
@@ -6866,9 +5353,7 @@
         <v>254</v>
       </c>
       <c r="C267" s="5"/>
-      <c r="D267" s="5">
-        <v>254</v>
-      </c>
+      <c r="D267" s="5"/>
       <c r="E267" s="5"/>
       <c r="F267" s="7"/>
       <c r="G267" s="5"/>
@@ -6883,9 +5368,7 @@
         <v>255</v>
       </c>
       <c r="C268" s="5"/>
-      <c r="D268" s="5">
-        <v>255</v>
-      </c>
+      <c r="D268" s="5"/>
       <c r="E268" s="5"/>
       <c r="F268" s="7"/>
       <c r="G268" s="5"/>
@@ -6900,9 +5383,7 @@
         <v>256</v>
       </c>
       <c r="C269" s="5"/>
-      <c r="D269" s="5">
-        <v>256</v>
-      </c>
+      <c r="D269" s="5"/>
       <c r="E269" s="5"/>
       <c r="F269" s="7"/>
       <c r="G269" s="5"/>
@@ -6917,9 +5398,7 @@
         <v>257</v>
       </c>
       <c r="C270" s="5"/>
-      <c r="D270" s="5">
-        <v>257</v>
-      </c>
+      <c r="D270" s="5"/>
       <c r="E270" s="5"/>
       <c r="F270" s="7"/>
       <c r="G270" s="5"/>
@@ -6934,9 +5413,7 @@
         <v>258</v>
       </c>
       <c r="C271" s="5"/>
-      <c r="D271" s="5">
-        <v>258</v>
-      </c>
+      <c r="D271" s="5"/>
       <c r="E271" s="5"/>
       <c r="F271" s="7"/>
       <c r="G271" s="5"/>
@@ -6951,9 +5428,7 @@
         <v>259</v>
       </c>
       <c r="C272" s="5"/>
-      <c r="D272" s="10">
-        <v>259</v>
-      </c>
+      <c r="D272" s="5"/>
       <c r="E272" s="5"/>
       <c r="F272" s="7"/>
       <c r="G272" s="5"/>
@@ -6968,9 +5443,7 @@
         <v>260</v>
       </c>
       <c r="C273" s="5"/>
-      <c r="D273" s="5">
-        <v>260</v>
-      </c>
+      <c r="D273" s="5"/>
       <c r="E273" s="5"/>
       <c r="F273" s="7"/>
       <c r="G273" s="5"/>
@@ -6985,9 +5458,7 @@
         <v>261</v>
       </c>
       <c r="C274" s="5"/>
-      <c r="D274" s="5">
-        <v>261</v>
-      </c>
+      <c r="D274" s="5"/>
       <c r="E274" s="5"/>
       <c r="F274" s="7"/>
       <c r="G274" s="5"/>
@@ -7002,9 +5473,7 @@
         <v>262</v>
       </c>
       <c r="C275" s="5"/>
-      <c r="D275" s="5">
-        <v>262</v>
-      </c>
+      <c r="D275" s="5"/>
       <c r="E275" s="5"/>
       <c r="F275" s="7"/>
       <c r="G275" s="5"/>
@@ -7019,9 +5488,7 @@
         <v>263</v>
       </c>
       <c r="C276" s="5"/>
-      <c r="D276" s="5">
-        <v>263</v>
-      </c>
+      <c r="D276" s="5"/>
       <c r="E276" s="5"/>
       <c r="F276" s="7"/>
       <c r="G276" s="5"/>
@@ -7036,9 +5503,7 @@
         <v>264</v>
       </c>
       <c r="C277" s="5"/>
-      <c r="D277" s="5">
-        <v>264</v>
-      </c>
+      <c r="D277" s="5"/>
       <c r="E277" s="5"/>
       <c r="F277" s="7"/>
       <c r="G277" s="5"/>
@@ -7053,9 +5518,7 @@
         <v>265</v>
       </c>
       <c r="C278" s="5"/>
-      <c r="D278" s="10">
-        <v>265</v>
-      </c>
+      <c r="D278" s="5"/>
       <c r="E278" s="5"/>
       <c r="F278" s="7"/>
       <c r="G278" s="5"/>
@@ -7070,9 +5533,7 @@
         <v>266</v>
       </c>
       <c r="C279" s="5"/>
-      <c r="D279" s="5">
-        <v>266</v>
-      </c>
+      <c r="D279" s="5"/>
       <c r="E279" s="5"/>
       <c r="F279" s="7"/>
       <c r="G279" s="5"/>
@@ -7087,9 +5548,7 @@
         <v>267</v>
       </c>
       <c r="C280" s="5"/>
-      <c r="D280" s="5">
-        <v>267</v>
-      </c>
+      <c r="D280" s="5"/>
       <c r="E280" s="5"/>
       <c r="F280" s="7"/>
       <c r="G280" s="5"/>
@@ -7104,9 +5563,7 @@
         <v>268</v>
       </c>
       <c r="C281" s="5"/>
-      <c r="D281" s="5">
-        <v>268</v>
-      </c>
+      <c r="D281" s="5"/>
       <c r="E281" s="5"/>
       <c r="F281" s="7"/>
       <c r="G281" s="5"/>
@@ -7121,9 +5578,7 @@
         <v>269</v>
       </c>
       <c r="C282" s="5"/>
-      <c r="D282" s="5">
-        <v>269</v>
-      </c>
+      <c r="D282" s="5"/>
       <c r="E282" s="5"/>
       <c r="F282" s="7"/>
       <c r="G282" s="5"/>
@@ -7138,9 +5593,7 @@
         <v>270</v>
       </c>
       <c r="C283" s="5"/>
-      <c r="D283" s="5">
-        <v>270</v>
-      </c>
+      <c r="D283" s="5"/>
       <c r="E283" s="5"/>
       <c r="F283" s="7"/>
       <c r="G283" s="5"/>
@@ -7155,9 +5608,7 @@
         <v>271</v>
       </c>
       <c r="C284" s="5"/>
-      <c r="D284" s="10">
-        <v>271</v>
-      </c>
+      <c r="D284" s="5"/>
       <c r="E284" s="5"/>
       <c r="F284" s="7"/>
       <c r="G284" s="5"/>
@@ -7172,9 +5623,7 @@
         <v>272</v>
       </c>
       <c r="C285" s="5"/>
-      <c r="D285" s="5">
-        <v>272</v>
-      </c>
+      <c r="D285" s="5"/>
       <c r="E285" s="5"/>
       <c r="F285" s="7"/>
       <c r="G285" s="5"/>
@@ -7189,9 +5638,7 @@
         <v>273</v>
       </c>
       <c r="C286" s="5"/>
-      <c r="D286" s="5">
-        <v>273</v>
-      </c>
+      <c r="D286" s="5"/>
       <c r="E286" s="5"/>
       <c r="F286" s="7"/>
       <c r="G286" s="5"/>
@@ -7206,9 +5653,7 @@
         <v>274</v>
       </c>
       <c r="C287" s="5"/>
-      <c r="D287" s="5">
-        <v>274</v>
-      </c>
+      <c r="D287" s="5"/>
       <c r="E287" s="5"/>
       <c r="F287" s="7"/>
       <c r="G287" s="5"/>
@@ -7223,9 +5668,7 @@
         <v>275</v>
       </c>
       <c r="C288" s="5"/>
-      <c r="D288" s="5">
-        <v>275</v>
-      </c>
+      <c r="D288" s="5"/>
       <c r="E288" s="5"/>
       <c r="F288" s="7"/>
       <c r="G288" s="5"/>
@@ -7240,9 +5683,7 @@
         <v>276</v>
       </c>
       <c r="C289" s="5"/>
-      <c r="D289" s="5">
-        <v>276</v>
-      </c>
+      <c r="D289" s="5"/>
       <c r="E289" s="5"/>
       <c r="F289" s="7"/>
       <c r="G289" s="5"/>
@@ -7257,9 +5698,7 @@
         <v>277</v>
       </c>
       <c r="C290" s="5"/>
-      <c r="D290" s="10">
-        <v>277</v>
-      </c>
+      <c r="D290" s="5"/>
       <c r="E290" s="5"/>
       <c r="F290" s="7"/>
       <c r="G290" s="5"/>
@@ -7274,9 +5713,7 @@
         <v>278</v>
       </c>
       <c r="C291" s="5"/>
-      <c r="D291" s="5">
-        <v>278</v>
-      </c>
+      <c r="D291" s="5"/>
       <c r="E291" s="5"/>
       <c r="F291" s="7"/>
       <c r="G291" s="5"/>
@@ -7291,9 +5728,7 @@
         <v>279</v>
       </c>
       <c r="C292" s="5"/>
-      <c r="D292" s="5">
-        <v>279</v>
-      </c>
+      <c r="D292" s="5"/>
       <c r="E292" s="5"/>
       <c r="F292" s="7"/>
       <c r="G292" s="5"/>
@@ -7308,9 +5743,7 @@
         <v>280</v>
       </c>
       <c r="C293" s="5"/>
-      <c r="D293" s="5">
-        <v>280</v>
-      </c>
+      <c r="D293" s="5"/>
       <c r="E293" s="5"/>
       <c r="F293" s="7"/>
       <c r="G293" s="5"/>
@@ -7325,9 +5758,7 @@
         <v>281</v>
       </c>
       <c r="C294" s="5"/>
-      <c r="D294" s="5">
-        <v>281</v>
-      </c>
+      <c r="D294" s="5"/>
       <c r="E294" s="5"/>
       <c r="F294" s="7"/>
       <c r="G294" s="5"/>
@@ -7342,9 +5773,7 @@
         <v>282</v>
       </c>
       <c r="C295" s="5"/>
-      <c r="D295" s="5">
-        <v>282</v>
-      </c>
+      <c r="D295" s="5"/>
       <c r="E295" s="5"/>
       <c r="F295" s="7"/>
       <c r="G295" s="5"/>
@@ -7359,9 +5788,7 @@
         <v>283</v>
       </c>
       <c r="C296" s="5"/>
-      <c r="D296" s="10">
-        <v>283</v>
-      </c>
+      <c r="D296" s="5"/>
       <c r="E296" s="5"/>
       <c r="F296" s="7"/>
       <c r="G296" s="5"/>
@@ -7376,9 +5803,7 @@
         <v>284</v>
       </c>
       <c r="C297" s="5"/>
-      <c r="D297" s="5">
-        <v>284</v>
-      </c>
+      <c r="D297" s="5"/>
       <c r="E297" s="5"/>
       <c r="F297" s="7"/>
       <c r="G297" s="5"/>
@@ -7393,9 +5818,7 @@
         <v>285</v>
       </c>
       <c r="C298" s="5"/>
-      <c r="D298" s="5">
-        <v>285</v>
-      </c>
+      <c r="D298" s="5"/>
       <c r="E298" s="5"/>
       <c r="F298" s="7"/>
       <c r="G298" s="5"/>
@@ -7410,9 +5833,7 @@
         <v>286</v>
       </c>
       <c r="C299" s="5"/>
-      <c r="D299" s="5">
-        <v>286</v>
-      </c>
+      <c r="D299" s="5"/>
       <c r="E299" s="5"/>
       <c r="F299" s="7"/>
       <c r="G299" s="5"/>
@@ -7427,9 +5848,7 @@
         <v>287</v>
       </c>
       <c r="C300" s="5"/>
-      <c r="D300" s="5">
-        <v>287</v>
-      </c>
+      <c r="D300" s="5"/>
       <c r="E300" s="5"/>
       <c r="F300" s="7"/>
       <c r="G300" s="5"/>
@@ -7444,9 +5863,7 @@
         <v>288</v>
       </c>
       <c r="C301" s="5"/>
-      <c r="D301" s="5">
-        <v>288</v>
-      </c>
+      <c r="D301" s="5"/>
       <c r="E301" s="5"/>
       <c r="F301" s="7"/>
       <c r="G301" s="5"/>
@@ -7461,9 +5878,7 @@
         <v>289</v>
       </c>
       <c r="C302" s="5"/>
-      <c r="D302" s="10">
-        <v>289</v>
-      </c>
+      <c r="D302" s="5"/>
       <c r="E302" s="5"/>
       <c r="F302" s="7"/>
       <c r="G302" s="5"/>
@@ -7478,9 +5893,7 @@
         <v>290</v>
       </c>
       <c r="C303" s="5"/>
-      <c r="D303" s="5">
-        <v>290</v>
-      </c>
+      <c r="D303" s="5"/>
       <c r="E303" s="5"/>
       <c r="F303" s="7"/>
       <c r="G303" s="5"/>
@@ -7495,9 +5908,7 @@
         <v>291</v>
       </c>
       <c r="C304" s="5"/>
-      <c r="D304" s="5">
-        <v>291</v>
-      </c>
+      <c r="D304" s="5"/>
       <c r="E304" s="5"/>
       <c r="F304" s="7"/>
       <c r="G304" s="5"/>
@@ -7512,9 +5923,7 @@
         <v>292</v>
       </c>
       <c r="C305" s="5"/>
-      <c r="D305" s="5">
-        <v>292</v>
-      </c>
+      <c r="D305" s="5"/>
       <c r="E305" s="5"/>
       <c r="F305" s="7"/>
       <c r="G305" s="5"/>
@@ -7529,9 +5938,7 @@
         <v>293</v>
       </c>
       <c r="C306" s="5"/>
-      <c r="D306" s="5">
-        <v>293</v>
-      </c>
+      <c r="D306" s="5"/>
       <c r="E306" s="5"/>
       <c r="F306" s="7"/>
       <c r="G306" s="5"/>
@@ -7546,9 +5953,7 @@
         <v>294</v>
       </c>
       <c r="C307" s="5"/>
-      <c r="D307" s="5">
-        <v>294</v>
-      </c>
+      <c r="D307" s="5"/>
       <c r="E307" s="5"/>
       <c r="F307" s="7"/>
       <c r="G307" s="5"/>
@@ -7563,9 +5968,7 @@
         <v>295</v>
       </c>
       <c r="C308" s="5"/>
-      <c r="D308" s="10">
-        <v>295</v>
-      </c>
+      <c r="D308" s="5"/>
       <c r="E308" s="5"/>
       <c r="F308" s="7"/>
       <c r="G308" s="5"/>
@@ -7580,9 +5983,7 @@
         <v>296</v>
       </c>
       <c r="C309" s="5"/>
-      <c r="D309" s="5">
-        <v>296</v>
-      </c>
+      <c r="D309" s="5"/>
       <c r="E309" s="5"/>
       <c r="F309" s="7"/>
       <c r="G309" s="5"/>
@@ -7597,9 +5998,7 @@
         <v>297</v>
       </c>
       <c r="C310" s="5"/>
-      <c r="D310" s="5">
-        <v>297</v>
-      </c>
+      <c r="D310" s="5"/>
       <c r="E310" s="5"/>
       <c r="F310" s="7"/>
       <c r="G310" s="5"/>
@@ -7614,9 +6013,7 @@
         <v>298</v>
       </c>
       <c r="C311" s="5"/>
-      <c r="D311" s="5">
-        <v>298</v>
-      </c>
+      <c r="D311" s="5"/>
       <c r="E311" s="5"/>
       <c r="F311" s="7"/>
       <c r="G311" s="5"/>
@@ -7631,9 +6028,7 @@
         <v>299</v>
       </c>
       <c r="C312" s="5"/>
-      <c r="D312" s="5">
-        <v>299</v>
-      </c>
+      <c r="D312" s="5"/>
       <c r="E312" s="5"/>
       <c r="F312" s="7"/>
       <c r="G312" s="5"/>
@@ -7648,9 +6043,7 @@
         <v>300</v>
       </c>
       <c r="C313" s="5"/>
-      <c r="D313" s="5">
-        <v>300</v>
-      </c>
+      <c r="D313" s="5"/>
       <c r="E313" s="5"/>
       <c r="F313" s="7"/>
       <c r="G313" s="5"/>
@@ -7665,9 +6058,7 @@
         <v>301</v>
       </c>
       <c r="C314" s="5"/>
-      <c r="D314" s="10">
-        <v>301</v>
-      </c>
+      <c r="D314" s="5"/>
       <c r="E314" s="5"/>
       <c r="F314" s="7"/>
       <c r="G314" s="5"/>
@@ -7682,9 +6073,7 @@
         <v>302</v>
       </c>
       <c r="C315" s="5"/>
-      <c r="D315" s="5">
-        <v>302</v>
-      </c>
+      <c r="D315" s="5"/>
       <c r="E315" s="5"/>
       <c r="F315" s="7"/>
       <c r="G315" s="5"/>
@@ -7699,9 +6088,7 @@
         <v>303</v>
       </c>
       <c r="C316" s="5"/>
-      <c r="D316" s="5">
-        <v>303</v>
-      </c>
+      <c r="D316" s="5"/>
       <c r="E316" s="5"/>
       <c r="F316" s="7"/>
       <c r="G316" s="5"/>
@@ -7716,9 +6103,7 @@
         <v>304</v>
       </c>
       <c r="C317" s="5"/>
-      <c r="D317" s="5">
-        <v>304</v>
-      </c>
+      <c r="D317" s="5"/>
       <c r="E317" s="5"/>
       <c r="F317" s="7"/>
       <c r="G317" s="5"/>
@@ -7733,9 +6118,7 @@
         <v>305</v>
       </c>
       <c r="C318" s="5"/>
-      <c r="D318" s="5">
-        <v>305</v>
-      </c>
+      <c r="D318" s="5"/>
       <c r="E318" s="5"/>
       <c r="F318" s="7"/>
       <c r="G318" s="5"/>
@@ -7750,9 +6133,7 @@
         <v>306</v>
       </c>
       <c r="C319" s="5"/>
-      <c r="D319" s="5">
-        <v>306</v>
-      </c>
+      <c r="D319" s="5"/>
       <c r="E319" s="5"/>
       <c r="F319" s="7"/>
       <c r="G319" s="5"/>
@@ -7767,9 +6148,7 @@
         <v>307</v>
       </c>
       <c r="C320" s="5"/>
-      <c r="D320" s="10">
-        <v>307</v>
-      </c>
+      <c r="D320" s="5"/>
       <c r="E320" s="5"/>
       <c r="F320" s="7"/>
       <c r="G320" s="5"/>
@@ -7784,9 +6163,7 @@
         <v>308</v>
       </c>
       <c r="C321" s="5"/>
-      <c r="D321" s="5">
-        <v>308</v>
-      </c>
+      <c r="D321" s="5"/>
       <c r="E321" s="5"/>
       <c r="F321" s="7"/>
       <c r="G321" s="5"/>
@@ -7801,9 +6178,7 @@
         <v>309</v>
       </c>
       <c r="C322" s="5"/>
-      <c r="D322" s="5">
-        <v>309</v>
-      </c>
+      <c r="D322" s="5"/>
       <c r="E322" s="5"/>
       <c r="F322" s="7"/>
       <c r="G322" s="5"/>
@@ -7818,9 +6193,7 @@
         <v>310</v>
       </c>
       <c r="C323" s="5"/>
-      <c r="D323" s="5">
-        <v>310</v>
-      </c>
+      <c r="D323" s="5"/>
       <c r="E323" s="5"/>
       <c r="F323" s="7"/>
       <c r="G323" s="5"/>
@@ -7835,9 +6208,7 @@
         <v>311</v>
       </c>
       <c r="C324" s="5"/>
-      <c r="D324" s="5">
-        <v>311</v>
-      </c>
+      <c r="D324" s="5"/>
       <c r="E324" s="5"/>
       <c r="F324" s="7"/>
       <c r="G324" s="5"/>
@@ -7852,9 +6223,7 @@
         <v>312</v>
       </c>
       <c r="C325" s="5"/>
-      <c r="D325" s="5">
-        <v>312</v>
-      </c>
+      <c r="D325" s="5"/>
       <c r="E325" s="5"/>
       <c r="F325" s="7"/>
       <c r="G325" s="5"/>
@@ -7869,9 +6238,7 @@
         <v>313</v>
       </c>
       <c r="C326" s="5"/>
-      <c r="D326" s="10">
-        <v>313</v>
-      </c>
+      <c r="D326" s="5"/>
       <c r="E326" s="5"/>
       <c r="F326" s="7"/>
       <c r="G326" s="5"/>
@@ -7886,9 +6253,7 @@
         <v>314</v>
       </c>
       <c r="C327" s="5"/>
-      <c r="D327" s="5">
-        <v>314</v>
-      </c>
+      <c r="D327" s="5"/>
       <c r="E327" s="5"/>
       <c r="F327" s="7"/>
       <c r="G327" s="5"/>
@@ -7903,9 +6268,7 @@
         <v>315</v>
       </c>
       <c r="C328" s="5"/>
-      <c r="D328" s="5">
-        <v>315</v>
-      </c>
+      <c r="D328" s="5"/>
       <c r="E328" s="5"/>
       <c r="F328" s="7"/>
       <c r="G328" s="5"/>
@@ -7920,9 +6283,7 @@
         <v>316</v>
       </c>
       <c r="C329" s="5"/>
-      <c r="D329" s="5">
-        <v>316</v>
-      </c>
+      <c r="D329" s="5"/>
       <c r="E329" s="5"/>
       <c r="F329" s="7"/>
       <c r="G329" s="5"/>
@@ -7937,9 +6298,7 @@
         <v>317</v>
       </c>
       <c r="C330" s="5"/>
-      <c r="D330" s="5">
-        <v>317</v>
-      </c>
+      <c r="D330" s="5"/>
       <c r="E330" s="5"/>
       <c r="F330" s="7"/>
       <c r="G330" s="5"/>
@@ -7954,9 +6313,7 @@
         <v>318</v>
       </c>
       <c r="C331" s="5"/>
-      <c r="D331" s="5">
-        <v>318</v>
-      </c>
+      <c r="D331" s="5"/>
       <c r="E331" s="5"/>
       <c r="F331" s="7"/>
       <c r="G331" s="5"/>
@@ -7971,9 +6328,7 @@
         <v>319</v>
       </c>
       <c r="C332" s="5"/>
-      <c r="D332" s="10">
-        <v>319</v>
-      </c>
+      <c r="D332" s="5"/>
       <c r="E332" s="5"/>
       <c r="F332" s="7"/>
       <c r="G332" s="5"/>
@@ -7988,9 +6343,7 @@
         <v>320</v>
       </c>
       <c r="C333" s="5"/>
-      <c r="D333" s="5">
-        <v>320</v>
-      </c>
+      <c r="D333" s="5"/>
       <c r="E333" s="5"/>
       <c r="F333" s="7"/>
       <c r="G333" s="5"/>
@@ -8005,9 +6358,7 @@
         <v>321</v>
       </c>
       <c r="C334" s="5"/>
-      <c r="D334" s="5">
-        <v>321</v>
-      </c>
+      <c r="D334" s="5"/>
       <c r="E334" s="5"/>
       <c r="F334" s="7"/>
       <c r="G334" s="5"/>
@@ -8022,9 +6373,7 @@
         <v>322</v>
       </c>
       <c r="C335" s="5"/>
-      <c r="D335" s="5">
-        <v>322</v>
-      </c>
+      <c r="D335" s="5"/>
       <c r="E335" s="5"/>
       <c r="F335" s="7"/>
       <c r="G335" s="5"/>
@@ -8039,9 +6388,7 @@
         <v>323</v>
       </c>
       <c r="C336" s="5"/>
-      <c r="D336" s="5">
-        <v>323</v>
-      </c>
+      <c r="D336" s="5"/>
       <c r="E336" s="5"/>
       <c r="F336" s="7"/>
       <c r="G336" s="5"/>
@@ -8056,9 +6403,7 @@
         <v>324</v>
       </c>
       <c r="C337" s="5"/>
-      <c r="D337" s="5">
-        <v>324</v>
-      </c>
+      <c r="D337" s="5"/>
       <c r="E337" s="5"/>
       <c r="F337" s="7"/>
       <c r="G337" s="5"/>
@@ -8073,9 +6418,7 @@
         <v>325</v>
       </c>
       <c r="C338" s="5"/>
-      <c r="D338" s="10">
-        <v>325</v>
-      </c>
+      <c r="D338" s="5"/>
       <c r="E338" s="5"/>
       <c r="F338" s="7"/>
       <c r="G338" s="5"/>
@@ -8090,9 +6433,7 @@
         <v>326</v>
       </c>
       <c r="C339" s="5"/>
-      <c r="D339" s="5">
-        <v>326</v>
-      </c>
+      <c r="D339" s="5"/>
       <c r="E339" s="5"/>
       <c r="F339" s="7"/>
       <c r="G339" s="5"/>
@@ -8107,9 +6448,7 @@
         <v>327</v>
       </c>
       <c r="C340" s="5"/>
-      <c r="D340" s="5">
-        <v>327</v>
-      </c>
+      <c r="D340" s="5"/>
       <c r="E340" s="5"/>
       <c r="F340" s="7"/>
       <c r="G340" s="5"/>
@@ -8124,9 +6463,7 @@
         <v>328</v>
       </c>
       <c r="C341" s="5"/>
-      <c r="D341" s="5">
-        <v>328</v>
-      </c>
+      <c r="D341" s="5"/>
       <c r="E341" s="5"/>
       <c r="F341" s="7"/>
       <c r="G341" s="5"/>
@@ -8141,9 +6478,7 @@
         <v>329</v>
       </c>
       <c r="C342" s="5"/>
-      <c r="D342" s="5">
-        <v>329</v>
-      </c>
+      <c r="D342" s="5"/>
       <c r="E342" s="5"/>
       <c r="F342" s="7"/>
       <c r="G342" s="5"/>
@@ -8158,9 +6493,7 @@
         <v>330</v>
       </c>
       <c r="C343" s="5"/>
-      <c r="D343" s="5">
-        <v>330</v>
-      </c>
+      <c r="D343" s="5"/>
       <c r="E343" s="5"/>
       <c r="F343" s="7"/>
       <c r="G343" s="5"/>
@@ -8175,9 +6508,7 @@
         <v>331</v>
       </c>
       <c r="C344" s="5"/>
-      <c r="D344" s="10">
-        <v>331</v>
-      </c>
+      <c r="D344" s="5"/>
       <c r="E344" s="5"/>
       <c r="F344" s="7"/>
       <c r="G344" s="5"/>
@@ -8192,9 +6523,7 @@
         <v>332</v>
       </c>
       <c r="C345" s="5"/>
-      <c r="D345" s="5">
-        <v>332</v>
-      </c>
+      <c r="D345" s="5"/>
       <c r="E345" s="5"/>
       <c r="F345" s="7"/>
       <c r="G345" s="5"/>
@@ -8209,9 +6538,7 @@
         <v>333</v>
       </c>
       <c r="C346" s="5"/>
-      <c r="D346" s="5">
-        <v>333</v>
-      </c>
+      <c r="D346" s="5"/>
       <c r="E346" s="5"/>
       <c r="F346" s="7"/>
       <c r="G346" s="5"/>
@@ -8226,9 +6553,7 @@
         <v>334</v>
       </c>
       <c r="C347" s="5"/>
-      <c r="D347" s="5">
-        <v>334</v>
-      </c>
+      <c r="D347" s="5"/>
       <c r="E347" s="5"/>
       <c r="F347" s="7"/>
       <c r="G347" s="5"/>
@@ -8243,9 +6568,7 @@
         <v>335</v>
       </c>
       <c r="C348" s="5"/>
-      <c r="D348" s="5">
-        <v>335</v>
-      </c>
+      <c r="D348" s="5"/>
       <c r="E348" s="5"/>
       <c r="F348" s="7"/>
       <c r="G348" s="5"/>
@@ -8260,9 +6583,7 @@
         <v>336</v>
       </c>
       <c r="C349" s="5"/>
-      <c r="D349" s="5">
-        <v>336</v>
-      </c>
+      <c r="D349" s="5"/>
       <c r="E349" s="5"/>
       <c r="F349" s="7"/>
       <c r="G349" s="5"/>
@@ -8277,9 +6598,7 @@
         <v>337</v>
       </c>
       <c r="C350" s="5"/>
-      <c r="D350" s="10">
-        <v>337</v>
-      </c>
+      <c r="D350" s="5"/>
       <c r="E350" s="5"/>
       <c r="F350" s="7"/>
       <c r="G350" s="5"/>
@@ -8294,9 +6613,7 @@
         <v>338</v>
       </c>
       <c r="C351" s="5"/>
-      <c r="D351" s="5">
-        <v>338</v>
-      </c>
+      <c r="D351" s="5"/>
       <c r="E351" s="5"/>
       <c r="F351" s="7"/>
       <c r="G351" s="5"/>
@@ -8311,9 +6628,7 @@
         <v>339</v>
       </c>
       <c r="C352" s="5"/>
-      <c r="D352" s="5">
-        <v>339</v>
-      </c>
+      <c r="D352" s="5"/>
       <c r="E352" s="5"/>
       <c r="F352" s="7"/>
       <c r="G352" s="5"/>
@@ -8328,9 +6643,7 @@
         <v>340</v>
       </c>
       <c r="C353" s="5"/>
-      <c r="D353" s="5">
-        <v>340</v>
-      </c>
+      <c r="D353" s="5"/>
       <c r="E353" s="5"/>
       <c r="F353" s="7"/>
       <c r="G353" s="5"/>
@@ -8345,9 +6658,7 @@
         <v>341</v>
       </c>
       <c r="C354" s="5"/>
-      <c r="D354" s="5">
-        <v>341</v>
-      </c>
+      <c r="D354" s="5"/>
       <c r="E354" s="5"/>
       <c r="F354" s="7"/>
       <c r="G354" s="5"/>
@@ -8362,9 +6673,7 @@
         <v>342</v>
       </c>
       <c r="C355" s="5"/>
-      <c r="D355" s="5">
-        <v>342</v>
-      </c>
+      <c r="D355" s="5"/>
       <c r="E355" s="5"/>
       <c r="F355" s="7"/>
       <c r="G355" s="5"/>
@@ -8379,9 +6688,7 @@
         <v>343</v>
       </c>
       <c r="C356" s="5"/>
-      <c r="D356" s="10">
-        <v>343</v>
-      </c>
+      <c r="D356" s="5"/>
       <c r="E356" s="5"/>
       <c r="F356" s="7"/>
       <c r="G356" s="5"/>
@@ -8396,9 +6703,7 @@
         <v>344</v>
       </c>
       <c r="C357" s="5"/>
-      <c r="D357" s="5">
-        <v>344</v>
-      </c>
+      <c r="D357" s="5"/>
       <c r="E357" s="5"/>
       <c r="F357" s="7"/>
       <c r="G357" s="5"/>
@@ -8413,9 +6718,7 @@
         <v>345</v>
       </c>
       <c r="C358" s="5"/>
-      <c r="D358" s="5">
-        <v>345</v>
-      </c>
+      <c r="D358" s="5"/>
       <c r="E358" s="5"/>
       <c r="F358" s="7"/>
       <c r="G358" s="5"/>
@@ -8430,9 +6733,7 @@
         <v>346</v>
       </c>
       <c r="C359" s="5"/>
-      <c r="D359" s="5">
-        <v>346</v>
-      </c>
+      <c r="D359" s="5"/>
       <c r="E359" s="5"/>
       <c r="F359" s="7"/>
       <c r="G359" s="5"/>
@@ -8447,9 +6748,7 @@
         <v>347</v>
       </c>
       <c r="C360" s="5"/>
-      <c r="D360" s="5">
-        <v>347</v>
-      </c>
+      <c r="D360" s="5"/>
       <c r="E360" s="5"/>
       <c r="F360" s="7"/>
       <c r="G360" s="5"/>
@@ -8464,9 +6763,7 @@
         <v>348</v>
       </c>
       <c r="C361" s="5"/>
-      <c r="D361" s="5">
-        <v>348</v>
-      </c>
+      <c r="D361" s="5"/>
       <c r="E361" s="5"/>
       <c r="F361" s="7"/>
       <c r="G361" s="5"/>
@@ -8481,9 +6778,7 @@
         <v>349</v>
       </c>
       <c r="C362" s="5"/>
-      <c r="D362" s="10">
-        <v>349</v>
-      </c>
+      <c r="D362" s="5"/>
       <c r="E362" s="5"/>
       <c r="F362" s="7"/>
       <c r="G362" s="5"/>
@@ -8498,9 +6793,7 @@
         <v>350</v>
       </c>
       <c r="C363" s="5"/>
-      <c r="D363" s="5">
-        <v>350</v>
-      </c>
+      <c r="D363" s="5"/>
       <c r="E363" s="5"/>
       <c r="F363" s="7"/>
       <c r="G363" s="5"/>
@@ -8515,9 +6808,7 @@
         <v>351</v>
       </c>
       <c r="C364" s="5"/>
-      <c r="D364" s="5">
-        <v>351</v>
-      </c>
+      <c r="D364" s="5"/>
       <c r="E364" s="5"/>
       <c r="F364" s="7"/>
       <c r="G364" s="5"/>
@@ -8532,9 +6823,7 @@
         <v>352</v>
       </c>
       <c r="C365" s="5"/>
-      <c r="D365" s="5">
-        <v>352</v>
-      </c>
+      <c r="D365" s="5"/>
       <c r="E365" s="5"/>
       <c r="F365" s="7"/>
       <c r="G365" s="5"/>
@@ -8549,9 +6838,7 @@
         <v>353</v>
       </c>
       <c r="C366" s="5"/>
-      <c r="D366" s="5">
-        <v>353</v>
-      </c>
+      <c r="D366" s="5"/>
       <c r="E366" s="5"/>
       <c r="F366" s="7"/>
       <c r="G366" s="5"/>
@@ -8566,9 +6853,7 @@
         <v>354</v>
       </c>
       <c r="C367" s="5"/>
-      <c r="D367" s="5">
-        <v>354</v>
-      </c>
+      <c r="D367" s="5"/>
       <c r="E367" s="5"/>
       <c r="F367" s="7"/>
       <c r="G367" s="5"/>
@@ -8583,9 +6868,7 @@
         <v>355</v>
       </c>
       <c r="C368" s="5"/>
-      <c r="D368" s="10">
-        <v>355</v>
-      </c>
+      <c r="D368" s="5"/>
       <c r="E368" s="5"/>
       <c r="F368" s="7"/>
       <c r="G368" s="5"/>
@@ -8600,9 +6883,7 @@
         <v>356</v>
       </c>
       <c r="C369" s="5"/>
-      <c r="D369" s="5">
-        <v>356</v>
-      </c>
+      <c r="D369" s="5"/>
       <c r="E369" s="5"/>
       <c r="F369" s="7"/>
       <c r="G369" s="5"/>
@@ -8617,9 +6898,7 @@
         <v>357</v>
       </c>
       <c r="C370" s="5"/>
-      <c r="D370" s="5">
-        <v>357</v>
-      </c>
+      <c r="D370" s="5"/>
       <c r="E370" s="5"/>
       <c r="F370" s="7"/>
       <c r="G370" s="5"/>
@@ -8634,9 +6913,7 @@
         <v>358</v>
       </c>
       <c r="C371" s="5"/>
-      <c r="D371" s="5">
-        <v>358</v>
-      </c>
+      <c r="D371" s="5"/>
       <c r="E371" s="5"/>
       <c r="F371" s="7"/>
       <c r="G371" s="5"/>
@@ -8651,9 +6928,7 @@
         <v>359</v>
       </c>
       <c r="C372" s="5"/>
-      <c r="D372" s="5">
-        <v>359</v>
-      </c>
+      <c r="D372" s="5"/>
       <c r="E372" s="5"/>
       <c r="F372" s="7"/>
       <c r="G372" s="5"/>
@@ -8668,9 +6943,7 @@
         <v>360</v>
       </c>
       <c r="C373" s="5"/>
-      <c r="D373" s="5">
-        <v>360</v>
-      </c>
+      <c r="D373" s="5"/>
       <c r="E373" s="5"/>
       <c r="F373" s="7"/>
       <c r="G373" s="5"/>
@@ -8684,9 +6957,7 @@
         <f t="shared" ref="B374:B437" si="13">+B373+1</f>
         <v>361</v>
       </c>
-      <c r="D374" s="10">
-        <v>361</v>
-      </c>
+      <c r="D374" s="5"/>
     </row>
     <row r="375" spans="1:7">
       <c r="A375" s="12">
@@ -8697,9 +6968,7 @@
         <f t="shared" si="13"/>
         <v>362</v>
       </c>
-      <c r="D375" s="5">
-        <v>362</v>
-      </c>
+      <c r="D375" s="5"/>
     </row>
     <row r="376" spans="1:7">
       <c r="A376" s="12">
@@ -8710,9 +6979,7 @@
         <f t="shared" si="13"/>
         <v>363</v>
       </c>
-      <c r="D376" s="5">
-        <v>363</v>
-      </c>
+      <c r="D376" s="5"/>
     </row>
     <row r="377" spans="1:7">
       <c r="A377" s="12">
@@ -8723,9 +6990,7 @@
         <f t="shared" si="13"/>
         <v>364</v>
       </c>
-      <c r="D377" s="5">
-        <v>364</v>
-      </c>
+      <c r="D377" s="5"/>
     </row>
     <row r="378" spans="1:7">
       <c r="A378" s="12">
@@ -8736,9 +7001,7 @@
         <f t="shared" si="13"/>
         <v>365</v>
       </c>
-      <c r="D378" s="5">
-        <v>365</v>
-      </c>
+      <c r="D378" s="5"/>
     </row>
     <row r="379" spans="1:7">
       <c r="A379" s="12">
@@ -8749,9 +7012,7 @@
         <f t="shared" si="13"/>
         <v>366</v>
       </c>
-      <c r="D379" s="5">
-        <v>366</v>
-      </c>
+      <c r="D379" s="5"/>
     </row>
     <row r="380" spans="1:7">
       <c r="A380" s="12">
@@ -8762,9 +7023,7 @@
         <f t="shared" si="13"/>
         <v>367</v>
       </c>
-      <c r="D380" s="10">
-        <v>367</v>
-      </c>
+      <c r="D380" s="5"/>
     </row>
     <row r="381" spans="1:7">
       <c r="A381" s="12">
@@ -8775,9 +7034,7 @@
         <f t="shared" si="13"/>
         <v>368</v>
       </c>
-      <c r="D381" s="5">
-        <v>368</v>
-      </c>
+      <c r="D381" s="5"/>
     </row>
     <row r="382" spans="1:7">
       <c r="A382" s="12">
@@ -8788,9 +7045,7 @@
         <f t="shared" si="13"/>
         <v>369</v>
       </c>
-      <c r="D382" s="5">
-        <v>369</v>
-      </c>
+      <c r="D382" s="5"/>
     </row>
     <row r="383" spans="1:7">
       <c r="A383" s="12">
@@ -8801,9 +7056,7 @@
         <f t="shared" si="13"/>
         <v>370</v>
       </c>
-      <c r="D383" s="5">
-        <v>370</v>
-      </c>
+      <c r="D383" s="5"/>
     </row>
     <row r="384" spans="1:7">
       <c r="A384" s="12">
@@ -8814,9 +7067,7 @@
         <f t="shared" si="13"/>
         <v>371</v>
       </c>
-      <c r="D384" s="5">
-        <v>371</v>
-      </c>
+      <c r="D384" s="5"/>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="12">
@@ -8827,9 +7078,7 @@
         <f t="shared" si="13"/>
         <v>372</v>
       </c>
-      <c r="D385" s="5">
-        <v>372</v>
-      </c>
+      <c r="D385" s="5"/>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="12">
@@ -8840,9 +7089,7 @@
         <f t="shared" si="13"/>
         <v>373</v>
       </c>
-      <c r="D386" s="10">
-        <v>373</v>
-      </c>
+      <c r="D386" s="5"/>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="12">
@@ -8853,9 +7100,7 @@
         <f t="shared" si="13"/>
         <v>374</v>
       </c>
-      <c r="D387" s="5">
-        <v>374</v>
-      </c>
+      <c r="D387" s="5"/>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="12">
@@ -8866,9 +7111,7 @@
         <f t="shared" si="13"/>
         <v>375</v>
       </c>
-      <c r="D388" s="5">
-        <v>375</v>
-      </c>
+      <c r="D388" s="5"/>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="12">
@@ -8879,9 +7122,7 @@
         <f t="shared" si="13"/>
         <v>376</v>
       </c>
-      <c r="D389" s="5">
-        <v>376</v>
-      </c>
+      <c r="D389" s="5"/>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="12">
@@ -8892,9 +7133,7 @@
         <f t="shared" si="13"/>
         <v>377</v>
       </c>
-      <c r="D390" s="5">
-        <v>377</v>
-      </c>
+      <c r="D390" s="5"/>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="12">
@@ -8905,9 +7144,7 @@
         <f t="shared" si="13"/>
         <v>378</v>
       </c>
-      <c r="D391" s="5">
-        <v>378</v>
-      </c>
+      <c r="D391" s="5"/>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="12">
@@ -8918,9 +7155,7 @@
         <f t="shared" si="13"/>
         <v>379</v>
       </c>
-      <c r="D392" s="10">
-        <v>379</v>
-      </c>
+      <c r="D392" s="5"/>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="12">
@@ -8931,9 +7166,7 @@
         <f t="shared" si="13"/>
         <v>380</v>
       </c>
-      <c r="D393" s="5">
-        <v>380</v>
-      </c>
+      <c r="D393" s="5"/>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="12">
@@ -8944,9 +7177,7 @@
         <f t="shared" si="13"/>
         <v>381</v>
       </c>
-      <c r="D394" s="5">
-        <v>381</v>
-      </c>
+      <c r="D394" s="5"/>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="12">
@@ -8957,9 +7188,7 @@
         <f t="shared" si="13"/>
         <v>382</v>
       </c>
-      <c r="D395" s="5">
-        <v>382</v>
-      </c>
+      <c r="D395" s="5"/>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="12">
@@ -8970,9 +7199,7 @@
         <f t="shared" si="13"/>
         <v>383</v>
       </c>
-      <c r="D396" s="5">
-        <v>383</v>
-      </c>
+      <c r="D396" s="5"/>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="12">
@@ -8983,9 +7210,7 @@
         <f t="shared" si="13"/>
         <v>384</v>
       </c>
-      <c r="D397" s="5">
-        <v>384</v>
-      </c>
+      <c r="D397" s="5"/>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="12">
@@ -8996,9 +7221,7 @@
         <f t="shared" si="13"/>
         <v>385</v>
       </c>
-      <c r="D398" s="10">
-        <v>385</v>
-      </c>
+      <c r="D398" s="5"/>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="12">
@@ -9009,9 +7232,7 @@
         <f t="shared" si="13"/>
         <v>386</v>
       </c>
-      <c r="D399" s="5">
-        <v>386</v>
-      </c>
+      <c r="D399" s="5"/>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="12">
@@ -9022,9 +7243,7 @@
         <f t="shared" si="13"/>
         <v>387</v>
       </c>
-      <c r="D400" s="5">
-        <v>387</v>
-      </c>
+      <c r="D400" s="5"/>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="12">
@@ -9035,9 +7254,7 @@
         <f t="shared" si="13"/>
         <v>388</v>
       </c>
-      <c r="D401" s="5">
-        <v>388</v>
-      </c>
+      <c r="D401" s="5"/>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="12">
@@ -9048,9 +7265,7 @@
         <f t="shared" si="13"/>
         <v>389</v>
       </c>
-      <c r="D402" s="5">
-        <v>389</v>
-      </c>
+      <c r="D402" s="5"/>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="12">
@@ -9061,9 +7276,7 @@
         <f t="shared" si="13"/>
         <v>390</v>
       </c>
-      <c r="D403" s="5">
-        <v>390</v>
-      </c>
+      <c r="D403" s="5"/>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="12">
@@ -9074,9 +7287,7 @@
         <f t="shared" si="13"/>
         <v>391</v>
       </c>
-      <c r="D404" s="10">
-        <v>391</v>
-      </c>
+      <c r="D404" s="5"/>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="12">
@@ -9087,9 +7298,7 @@
         <f t="shared" si="13"/>
         <v>392</v>
       </c>
-      <c r="D405" s="5">
-        <v>392</v>
-      </c>
+      <c r="D405" s="5"/>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="12">
@@ -9100,9 +7309,7 @@
         <f t="shared" si="13"/>
         <v>393</v>
       </c>
-      <c r="D406" s="5">
-        <v>393</v>
-      </c>
+      <c r="D406" s="5"/>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="12">
@@ -9113,9 +7320,7 @@
         <f t="shared" si="13"/>
         <v>394</v>
       </c>
-      <c r="D407" s="5">
-        <v>394</v>
-      </c>
+      <c r="D407" s="5"/>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="12">
@@ -9126,9 +7331,7 @@
         <f t="shared" si="13"/>
         <v>395</v>
       </c>
-      <c r="D408" s="5">
-        <v>395</v>
-      </c>
+      <c r="D408" s="5"/>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="12">
@@ -9139,9 +7342,7 @@
         <f t="shared" si="13"/>
         <v>396</v>
       </c>
-      <c r="D409" s="5">
-        <v>396</v>
-      </c>
+      <c r="D409" s="5"/>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="12">
@@ -9152,9 +7353,7 @@
         <f t="shared" si="13"/>
         <v>397</v>
       </c>
-      <c r="D410" s="10">
-        <v>397</v>
-      </c>
+      <c r="D410" s="5"/>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="12">
@@ -9165,9 +7364,7 @@
         <f t="shared" si="13"/>
         <v>398</v>
       </c>
-      <c r="D411" s="5">
-        <v>398</v>
-      </c>
+      <c r="D411" s="5"/>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="12">
@@ -9178,9 +7375,7 @@
         <f t="shared" si="13"/>
         <v>399</v>
       </c>
-      <c r="D412" s="5">
-        <v>399</v>
-      </c>
+      <c r="D412" s="5"/>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="12">
@@ -9191,9 +7386,7 @@
         <f t="shared" si="13"/>
         <v>400</v>
       </c>
-      <c r="D413" s="5">
-        <v>400</v>
-      </c>
+      <c r="D413" s="5"/>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="12">
@@ -9204,9 +7397,7 @@
         <f t="shared" si="13"/>
         <v>401</v>
       </c>
-      <c r="D414" s="5">
-        <v>401</v>
-      </c>
+      <c r="D414" s="5"/>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="12">
@@ -9217,9 +7408,7 @@
         <f t="shared" si="13"/>
         <v>402</v>
       </c>
-      <c r="D415" s="5">
-        <v>402</v>
-      </c>
+      <c r="D415" s="5"/>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="12">
@@ -9230,9 +7419,7 @@
         <f t="shared" si="13"/>
         <v>403</v>
       </c>
-      <c r="D416" s="10">
-        <v>403</v>
-      </c>
+      <c r="D416" s="5"/>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="12">
@@ -9243,9 +7430,7 @@
         <f t="shared" si="13"/>
         <v>404</v>
       </c>
-      <c r="D417" s="5">
-        <v>404</v>
-      </c>
+      <c r="D417" s="5"/>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="12">
@@ -9256,9 +7441,7 @@
         <f t="shared" si="13"/>
         <v>405</v>
       </c>
-      <c r="D418" s="5">
-        <v>405</v>
-      </c>
+      <c r="D418" s="5"/>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="12">
@@ -9269,9 +7452,7 @@
         <f t="shared" si="13"/>
         <v>406</v>
       </c>
-      <c r="D419" s="5">
-        <v>406</v>
-      </c>
+      <c r="D419" s="5"/>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="12">
@@ -9282,9 +7463,7 @@
         <f t="shared" si="13"/>
         <v>407</v>
       </c>
-      <c r="D420" s="5">
-        <v>407</v>
-      </c>
+      <c r="D420" s="5"/>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="12">
@@ -9295,9 +7474,7 @@
         <f t="shared" si="13"/>
         <v>408</v>
       </c>
-      <c r="D421" s="5">
-        <v>408</v>
-      </c>
+      <c r="D421" s="5"/>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="12">
@@ -9308,9 +7485,7 @@
         <f t="shared" si="13"/>
         <v>409</v>
       </c>
-      <c r="D422" s="10">
-        <v>409</v>
-      </c>
+      <c r="D422" s="5"/>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="12">
@@ -9321,9 +7496,7 @@
         <f t="shared" si="13"/>
         <v>410</v>
       </c>
-      <c r="D423" s="5">
-        <v>410</v>
-      </c>
+      <c r="D423" s="5"/>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="12">
@@ -9334,9 +7507,7 @@
         <f t="shared" si="13"/>
         <v>411</v>
       </c>
-      <c r="D424" s="5">
-        <v>411</v>
-      </c>
+      <c r="D424" s="5"/>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="12">
@@ -9347,9 +7518,7 @@
         <f t="shared" si="13"/>
         <v>412</v>
       </c>
-      <c r="D425" s="5">
-        <v>412</v>
-      </c>
+      <c r="D425" s="5"/>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="12">
@@ -9360,9 +7529,7 @@
         <f t="shared" si="13"/>
         <v>413</v>
       </c>
-      <c r="D426" s="5">
-        <v>413</v>
-      </c>
+      <c r="D426" s="5"/>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="12">
@@ -9373,9 +7540,7 @@
         <f t="shared" si="13"/>
         <v>414</v>
       </c>
-      <c r="D427" s="5">
-        <v>414</v>
-      </c>
+      <c r="D427" s="5"/>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="12">
@@ -9386,9 +7551,7 @@
         <f t="shared" si="13"/>
         <v>415</v>
       </c>
-      <c r="D428" s="10">
-        <v>415</v>
-      </c>
+      <c r="D428" s="5"/>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="12">
@@ -9399,9 +7562,7 @@
         <f t="shared" si="13"/>
         <v>416</v>
       </c>
-      <c r="D429" s="5">
-        <v>416</v>
-      </c>
+      <c r="D429" s="5"/>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="12">
@@ -9412,9 +7573,7 @@
         <f t="shared" si="13"/>
         <v>417</v>
       </c>
-      <c r="D430" s="5">
-        <v>417</v>
-      </c>
+      <c r="D430" s="5"/>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="12">
@@ -9425,9 +7584,7 @@
         <f t="shared" si="13"/>
         <v>418</v>
       </c>
-      <c r="D431" s="5">
-        <v>418</v>
-      </c>
+      <c r="D431" s="5"/>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="12">
@@ -9438,9 +7595,7 @@
         <f t="shared" si="13"/>
         <v>419</v>
       </c>
-      <c r="D432" s="5">
-        <v>419</v>
-      </c>
+      <c r="D432" s="5"/>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="12">
@@ -9451,9 +7606,7 @@
         <f t="shared" si="13"/>
         <v>420</v>
       </c>
-      <c r="D433" s="5">
-        <v>420</v>
-      </c>
+      <c r="D433" s="5"/>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="12">
@@ -9464,9 +7617,7 @@
         <f t="shared" si="13"/>
         <v>421</v>
       </c>
-      <c r="D434" s="10">
-        <v>421</v>
-      </c>
+      <c r="D434" s="5"/>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="12">
@@ -9477,9 +7628,7 @@
         <f t="shared" si="13"/>
         <v>422</v>
       </c>
-      <c r="D435" s="5">
-        <v>422</v>
-      </c>
+      <c r="D435" s="5"/>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="12">
@@ -9490,9 +7639,7 @@
         <f t="shared" si="13"/>
         <v>423</v>
       </c>
-      <c r="D436" s="5">
-        <v>423</v>
-      </c>
+      <c r="D436" s="5"/>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="12">
@@ -9503,9 +7650,7 @@
         <f t="shared" si="13"/>
         <v>424</v>
       </c>
-      <c r="D437" s="5">
-        <v>424</v>
-      </c>
+      <c r="D437" s="5"/>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="12">
@@ -9516,9 +7661,7 @@
         <f t="shared" ref="B438:B462" si="15">+B437+1</f>
         <v>425</v>
       </c>
-      <c r="D438" s="5">
-        <v>425</v>
-      </c>
+      <c r="D438" s="5"/>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="12">
@@ -9529,9 +7672,7 @@
         <f t="shared" si="15"/>
         <v>426</v>
       </c>
-      <c r="D439" s="5">
-        <v>426</v>
-      </c>
+      <c r="D439" s="5"/>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="12">
@@ -9542,9 +7683,7 @@
         <f t="shared" si="15"/>
         <v>427</v>
       </c>
-      <c r="D440" s="10">
-        <v>427</v>
-      </c>
+      <c r="D440" s="5"/>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="12">
@@ -9555,9 +7694,7 @@
         <f t="shared" si="15"/>
         <v>428</v>
       </c>
-      <c r="D441" s="5">
-        <v>428</v>
-      </c>
+      <c r="D441" s="5"/>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="12">
@@ -9568,9 +7705,7 @@
         <f t="shared" si="15"/>
         <v>429</v>
       </c>
-      <c r="D442" s="5">
-        <v>429</v>
-      </c>
+      <c r="D442" s="5"/>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="12">
@@ -9581,9 +7716,7 @@
         <f t="shared" si="15"/>
         <v>430</v>
       </c>
-      <c r="D443" s="5">
-        <v>430</v>
-      </c>
+      <c r="D443" s="5"/>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="12">
@@ -9594,9 +7727,7 @@
         <f t="shared" si="15"/>
         <v>431</v>
       </c>
-      <c r="D444" s="5">
-        <v>431</v>
-      </c>
+      <c r="D444" s="5"/>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="12">
@@ -9607,9 +7738,7 @@
         <f t="shared" si="15"/>
         <v>432</v>
       </c>
-      <c r="D445" s="5">
-        <v>432</v>
-      </c>
+      <c r="D445" s="5"/>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="12">
@@ -9620,9 +7749,7 @@
         <f t="shared" si="15"/>
         <v>433</v>
       </c>
-      <c r="D446" s="10">
-        <v>433</v>
-      </c>
+      <c r="D446" s="5"/>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="12">
@@ -9633,9 +7760,7 @@
         <f t="shared" si="15"/>
         <v>434</v>
       </c>
-      <c r="D447" s="5">
-        <v>434</v>
-      </c>
+      <c r="D447" s="5"/>
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="12">
@@ -9646,9 +7771,7 @@
         <f t="shared" si="15"/>
         <v>435</v>
       </c>
-      <c r="D448" s="5">
-        <v>435</v>
-      </c>
+      <c r="D448" s="5"/>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="12">
@@ -9659,9 +7782,7 @@
         <f t="shared" si="15"/>
         <v>436</v>
       </c>
-      <c r="D449" s="5">
-        <v>436</v>
-      </c>
+      <c r="D449" s="5"/>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="12">
@@ -9672,9 +7793,7 @@
         <f t="shared" si="15"/>
         <v>437</v>
       </c>
-      <c r="D450" s="5">
-        <v>437</v>
-      </c>
+      <c r="D450" s="5"/>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="12">
@@ -9685,9 +7804,7 @@
         <f t="shared" si="15"/>
         <v>438</v>
       </c>
-      <c r="D451" s="5">
-        <v>438</v>
-      </c>
+      <c r="D451" s="5"/>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="12">
@@ -9698,9 +7815,7 @@
         <f t="shared" si="15"/>
         <v>439</v>
       </c>
-      <c r="D452" s="10">
-        <v>439</v>
-      </c>
+      <c r="D452" s="5"/>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="12">
@@ -9711,9 +7826,7 @@
         <f t="shared" si="15"/>
         <v>440</v>
       </c>
-      <c r="D453" s="5">
-        <v>440</v>
-      </c>
+      <c r="D453" s="5"/>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="12">
@@ -9724,9 +7837,7 @@
         <f t="shared" si="15"/>
         <v>441</v>
       </c>
-      <c r="D454" s="5">
-        <v>441</v>
-      </c>
+      <c r="D454" s="5"/>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="12">
@@ -9737,9 +7848,7 @@
         <f t="shared" si="15"/>
         <v>442</v>
       </c>
-      <c r="D455" s="5">
-        <v>442</v>
-      </c>
+      <c r="D455" s="5"/>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="12">
@@ -9750,9 +7859,7 @@
         <f t="shared" si="15"/>
         <v>443</v>
       </c>
-      <c r="D456" s="5">
-        <v>443</v>
-      </c>
+      <c r="D456" s="5"/>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="12">
@@ -9763,9 +7870,7 @@
         <f t="shared" si="15"/>
         <v>444</v>
       </c>
-      <c r="D457" s="5">
-        <v>444</v>
-      </c>
+      <c r="D457" s="5"/>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="12">
@@ -9776,9 +7881,7 @@
         <f t="shared" si="15"/>
         <v>445</v>
       </c>
-      <c r="D458" s="10">
-        <v>445</v>
-      </c>
+      <c r="D458" s="5"/>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="12">
@@ -9789,9 +7892,7 @@
         <f t="shared" si="15"/>
         <v>446</v>
       </c>
-      <c r="D459" s="5">
-        <v>446</v>
-      </c>
+      <c r="D459" s="5"/>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="12">
@@ -9802,9 +7903,7 @@
         <f t="shared" si="15"/>
         <v>447</v>
       </c>
-      <c r="D460" s="5">
-        <v>447</v>
-      </c>
+      <c r="D460" s="5"/>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="12">
@@ -9815,9 +7914,7 @@
         <f t="shared" si="15"/>
         <v>448</v>
       </c>
-      <c r="D461" s="5">
-        <v>448</v>
-      </c>
+      <c r="D461" s="5"/>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="12">
@@ -9828,9 +7925,7 @@
         <f t="shared" si="15"/>
         <v>449</v>
       </c>
-      <c r="D462" s="5">
-        <v>449</v>
-      </c>
+      <c r="D462" s="5"/>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="12">
@@ -9841,9 +7936,7 @@
         <f>+B462+1</f>
         <v>450</v>
       </c>
-      <c r="D463" s="5">
-        <v>450</v>
-      </c>
+      <c r="D463" s="5"/>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="12">
@@ -9854,9 +7947,7 @@
         <f>+B463+1</f>
         <v>451</v>
       </c>
-      <c r="D464" s="10">
-        <v>451</v>
-      </c>
+      <c r="D464" s="5"/>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="12">
@@ -9867,9 +7958,7 @@
         <f>+B464+1</f>
         <v>452</v>
       </c>
-      <c r="D465" s="5">
-        <v>452</v>
-      </c>
+      <c r="D465" s="5"/>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="12">
@@ -9880,9 +7969,7 @@
         <f t="shared" ref="B466:B487" si="16">+B465+1</f>
         <v>453</v>
       </c>
-      <c r="D466" s="5">
-        <v>453</v>
-      </c>
+      <c r="D466" s="5"/>
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="12">
@@ -9893,9 +7980,7 @@
         <f t="shared" si="16"/>
         <v>454</v>
       </c>
-      <c r="D467" s="5">
-        <v>454</v>
-      </c>
+      <c r="D467" s="5"/>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="12">
@@ -9906,9 +7991,7 @@
         <f t="shared" si="16"/>
         <v>455</v>
       </c>
-      <c r="D468" s="5">
-        <v>455</v>
-      </c>
+      <c r="D468" s="5"/>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="12">
@@ -9919,9 +8002,7 @@
         <f t="shared" si="16"/>
         <v>456</v>
       </c>
-      <c r="D469" s="5">
-        <v>456</v>
-      </c>
+      <c r="D469" s="5"/>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="12">
@@ -9932,9 +8013,7 @@
         <f t="shared" si="16"/>
         <v>457</v>
       </c>
-      <c r="D470" s="10">
-        <v>457</v>
-      </c>
+      <c r="D470" s="5"/>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="12">
@@ -9945,9 +8024,7 @@
         <f t="shared" si="16"/>
         <v>458</v>
       </c>
-      <c r="D471" s="5">
-        <v>458</v>
-      </c>
+      <c r="D471" s="5"/>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="12">
@@ -9958,9 +8035,7 @@
         <f t="shared" si="16"/>
         <v>459</v>
       </c>
-      <c r="D472" s="5">
-        <v>459</v>
-      </c>
+      <c r="D472" s="5"/>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="12">
@@ -9971,9 +8046,7 @@
         <f t="shared" si="16"/>
         <v>460</v>
       </c>
-      <c r="D473" s="5">
-        <v>460</v>
-      </c>
+      <c r="D473" s="5"/>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="12">
@@ -9984,9 +8057,7 @@
         <f t="shared" si="16"/>
         <v>461</v>
       </c>
-      <c r="D474" s="5">
-        <v>461</v>
-      </c>
+      <c r="D474" s="5"/>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="12">
@@ -9997,9 +8068,7 @@
         <f t="shared" si="16"/>
         <v>462</v>
       </c>
-      <c r="D475" s="5">
-        <v>462</v>
-      </c>
+      <c r="D475" s="5"/>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="12">
@@ -10010,9 +8079,7 @@
         <f t="shared" si="16"/>
         <v>463</v>
       </c>
-      <c r="D476" s="10">
-        <v>463</v>
-      </c>
+      <c r="D476" s="5"/>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="12">
@@ -10023,9 +8090,7 @@
         <f t="shared" si="16"/>
         <v>464</v>
       </c>
-      <c r="D477" s="5">
-        <v>464</v>
-      </c>
+      <c r="D477" s="5"/>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="12">
@@ -10036,9 +8101,7 @@
         <f t="shared" si="16"/>
         <v>465</v>
       </c>
-      <c r="D478" s="5">
-        <v>465</v>
-      </c>
+      <c r="D478" s="5"/>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="12">
@@ -10049,9 +8112,7 @@
         <f t="shared" si="16"/>
         <v>466</v>
       </c>
-      <c r="D479" s="5">
-        <v>466</v>
-      </c>
+      <c r="D479" s="5"/>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="12">
@@ -10062,9 +8123,7 @@
         <f t="shared" si="16"/>
         <v>467</v>
       </c>
-      <c r="D480" s="5">
-        <v>467</v>
-      </c>
+      <c r="D480" s="5"/>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="12">
@@ -10075,9 +8134,7 @@
         <f t="shared" si="16"/>
         <v>468</v>
       </c>
-      <c r="D481" s="5">
-        <v>468</v>
-      </c>
+      <c r="D481" s="5"/>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="12">
@@ -10088,9 +8145,7 @@
         <f t="shared" si="16"/>
         <v>469</v>
       </c>
-      <c r="D482" s="10">
-        <v>469</v>
-      </c>
+      <c r="D482" s="5"/>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="12">
@@ -10101,9 +8156,7 @@
         <f t="shared" si="16"/>
         <v>470</v>
       </c>
-      <c r="D483" s="5">
-        <v>470</v>
-      </c>
+      <c r="D483" s="5"/>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="12">
@@ -10114,9 +8167,7 @@
         <f t="shared" si="16"/>
         <v>471</v>
       </c>
-      <c r="D484" s="5">
-        <v>471</v>
-      </c>
+      <c r="D484" s="5"/>
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="12">
@@ -10127,9 +8178,7 @@
         <f t="shared" si="16"/>
         <v>472</v>
       </c>
-      <c r="D485" s="5">
-        <v>472</v>
-      </c>
+      <c r="D485" s="5"/>
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="12">
@@ -10140,9 +8189,7 @@
         <f t="shared" si="16"/>
         <v>473</v>
       </c>
-      <c r="D486" s="5">
-        <v>473</v>
-      </c>
+      <c r="D486" s="5"/>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="12">
@@ -10153,9 +8200,7 @@
         <f t="shared" si="16"/>
         <v>474</v>
       </c>
-      <c r="D487" s="5">
-        <v>474</v>
-      </c>
+      <c r="D487" s="5"/>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="12">
@@ -10166,9 +8211,7 @@
         <f t="shared" ref="B488:B493" si="17">+B487+1</f>
         <v>475</v>
       </c>
-      <c r="D488" s="10">
-        <v>475</v>
-      </c>
+      <c r="D488" s="5"/>
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="12">
@@ -10179,9 +8222,7 @@
         <f t="shared" si="17"/>
         <v>476</v>
       </c>
-      <c r="D489" s="5">
-        <v>476</v>
-      </c>
+      <c r="D489" s="5"/>
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="12">
@@ -10192,9 +8233,7 @@
         <f t="shared" si="17"/>
         <v>477</v>
       </c>
-      <c r="D490" s="5">
-        <v>477</v>
-      </c>
+      <c r="D490" s="5"/>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="12">
@@ -10205,9 +8244,7 @@
         <f t="shared" si="17"/>
         <v>478</v>
       </c>
-      <c r="D491" s="5">
-        <v>478</v>
-      </c>
+      <c r="D491" s="5"/>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="12">
@@ -10218,9 +8255,7 @@
         <f t="shared" si="17"/>
         <v>479</v>
       </c>
-      <c r="D492" s="5">
-        <v>479</v>
-      </c>
+      <c r="D492" s="5"/>
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="12">
@@ -10231,9 +8266,7 @@
         <f t="shared" si="17"/>
         <v>480</v>
       </c>
-      <c r="D493" s="5">
-        <v>480</v>
-      </c>
+      <c r="D493" s="5"/>
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="12"/>

--- a/answer.xlsx
+++ b/answer.xlsx
@@ -95,7 +95,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -128,6 +128,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -152,11 +164,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -195,9 +211,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -315,11 +338,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2119618984"/>
-        <c:axId val="2140537416"/>
+        <c:axId val="2142709512"/>
+        <c:axId val="2142777160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2119618984"/>
+        <c:axId val="2142709512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -393,7 +416,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2140537416"/>
+        <c:crossAx val="2142777160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -403,7 +426,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2140537416"/>
+        <c:axId val="2142777160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -448,7 +471,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2119618984"/>
+        <c:crossAx val="2142709512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -680,6 +703,9 @@
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="360"/>
+                <c:pt idx="0">
+                  <c:v>1000.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -720,6 +746,9 @@
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="360"/>
+                <c:pt idx="0">
+                  <c:v>199000.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -735,11 +764,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2140757176"/>
-        <c:axId val="2140673016"/>
+        <c:axId val="2146245096"/>
+        <c:axId val="2146387672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2140757176"/>
+        <c:axId val="2146245096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -813,7 +842,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2140673016"/>
+        <c:crossAx val="2146387672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -823,7 +852,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2140673016"/>
+        <c:axId val="2146387672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -868,7 +897,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2140757176"/>
+        <c:crossAx val="2146245096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1358,7 +1387,7 @@
   <dimension ref="A1:H495"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="G14" sqref="A13:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1366,7 +1395,8 @@
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="11.83203125" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
@@ -1488,8 +1518,9 @@
         <f>C4</f>
         <v>200000</v>
       </c>
-      <c r="D13" s="20">
-        <v>0</v>
+      <c r="D13" s="22">
+        <f>C4</f>
+        <v>200000</v>
       </c>
       <c r="E13" s="19">
         <f>C9</f>
@@ -1515,15 +1546,25 @@
         <v>1</v>
       </c>
       <c r="C14" s="5">
+        <f>G13</f>
         <v>200000</v>
       </c>
       <c r="D14" s="10">
         <f>C14</f>
         <v>200000</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="10"/>
+      <c r="E14" s="10">
+        <f>$C$5/12*C14</f>
+        <v>1000</v>
+      </c>
+      <c r="F14" s="11">
+        <f>D14-E14</f>
+        <v>199000</v>
+      </c>
+      <c r="G14" s="10">
+        <f>IF(B14&gt;$C$6*12,0,C14-F14)</f>
+        <v>1000</v>
+      </c>
       <c r="H14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1542,7 +1583,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="7"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="5"/>
       <c r="H15" s="2" t="s">
         <v>14</v>
@@ -1562,7 +1603,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="7"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="5"/>
       <c r="H16" s="2" t="s">
         <v>15</v>
@@ -1582,7 +1623,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="7"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7">
@@ -1599,7 +1640,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="7"/>
+      <c r="F18" s="11"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7">

--- a/answer.xlsx
+++ b/answer.xlsx
@@ -95,7 +95,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -128,18 +128,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="11"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -164,15 +152,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -211,16 +195,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -338,11 +315,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2142709512"/>
-        <c:axId val="2142777160"/>
+        <c:axId val="2119618984"/>
+        <c:axId val="2140537416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2142709512"/>
+        <c:axId val="2119618984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -416,7 +393,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142777160"/>
+        <c:crossAx val="2140537416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -426,7 +403,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2142777160"/>
+        <c:axId val="2140537416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -471,7 +448,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2142709512"/>
+        <c:crossAx val="2119618984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -703,9 +680,6 @@
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="360"/>
-                <c:pt idx="0">
-                  <c:v>1000.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -746,9 +720,6 @@
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="360"/>
-                <c:pt idx="0">
-                  <c:v>199000.0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -764,11 +735,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2146245096"/>
-        <c:axId val="2146387672"/>
+        <c:axId val="2140757176"/>
+        <c:axId val="2140673016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2146245096"/>
+        <c:axId val="2140757176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -842,7 +813,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2146387672"/>
+        <c:crossAx val="2140673016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -852,7 +823,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2146387672"/>
+        <c:axId val="2140673016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -897,7 +868,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2146245096"/>
+        <c:crossAx val="2140757176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1387,7 +1358,7 @@
   <dimension ref="A1:H495"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="A13:G14"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1395,8 +1366,7 @@
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="4" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="11.83203125" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
@@ -1518,9 +1488,8 @@
         <f>C4</f>
         <v>200000</v>
       </c>
-      <c r="D13" s="22">
-        <f>C4</f>
-        <v>200000</v>
+      <c r="D13" s="20">
+        <v>0</v>
       </c>
       <c r="E13" s="19">
         <f>C9</f>
@@ -1546,25 +1515,15 @@
         <v>1</v>
       </c>
       <c r="C14" s="5">
-        <f>G13</f>
         <v>200000</v>
       </c>
       <c r="D14" s="10">
         <f>C14</f>
         <v>200000</v>
       </c>
-      <c r="E14" s="10">
-        <f>$C$5/12*C14</f>
-        <v>1000</v>
-      </c>
-      <c r="F14" s="11">
-        <f>D14-E14</f>
-        <v>199000</v>
-      </c>
-      <c r="G14" s="10">
-        <f>IF(B14&gt;$C$6*12,0,C14-F14)</f>
-        <v>1000</v>
-      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="10"/>
       <c r="H14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1583,7 +1542,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="11"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="5"/>
       <c r="H15" s="2" t="s">
         <v>14</v>
@@ -1603,7 +1562,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="11"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="5"/>
       <c r="H16" s="2" t="s">
         <v>15</v>
@@ -1623,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="11"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7">
@@ -1640,7 +1599,7 @@
         <v>5</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="11"/>
+      <c r="F18" s="7"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7">
